--- a/output_baku/flights_non_direct_missing86.xlsx
+++ b/output_baku/flights_non_direct_missing86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="191">
   <si>
     <t>origin_airport</t>
   </si>
@@ -133,6 +133,9 @@
     <t>LPPT</t>
   </si>
   <si>
+    <t>PTRO</t>
+  </si>
+  <si>
     <t>EPWA</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>MYNN</t>
   </si>
   <si>
+    <t>OIII</t>
+  </si>
+  <si>
     <t>VRMM</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>FIMP</t>
   </si>
   <si>
+    <t>LJLJ</t>
+  </si>
+  <si>
     <t>LSZH</t>
   </si>
   <si>
@@ -298,6 +307,12 @@
     <t>UGTB</t>
   </si>
   <si>
+    <t>UBBB</t>
+  </si>
+  <si>
+    <t>LDZA</t>
+  </si>
+  <si>
     <t>LIMC</t>
   </si>
   <si>
@@ -316,12 +331,18 @@
     <t>RJTT</t>
   </si>
   <si>
+    <t>CYOW</t>
+  </si>
+  <si>
     <t>FZAA</t>
   </si>
   <si>
     <t>DIAP</t>
   </si>
   <si>
+    <t>FNLU</t>
+  </si>
+  <si>
     <t>GQNO</t>
   </si>
   <si>
@@ -334,9 +355,6 @@
     <t>VQPR</t>
   </si>
   <si>
-    <t>LJLJ</t>
-  </si>
-  <si>
     <t>LWSK</t>
   </si>
   <si>
@@ -349,15 +367,9 @@
     <t>LCLK</t>
   </si>
   <si>
-    <t>LDZA</t>
-  </si>
-  <si>
     <t>VIDP</t>
   </si>
   <si>
-    <t>LZIB</t>
-  </si>
-  <si>
     <t>HTDA</t>
   </si>
   <si>
@@ -376,6 +388,9 @@
     <t>FQMA</t>
   </si>
   <si>
+    <t>TBPB</t>
+  </si>
+  <si>
     <t>HDAM</t>
   </si>
   <si>
@@ -388,6 +403,9 @@
     <t>LTAF</t>
   </si>
   <si>
+    <t>DGAA</t>
+  </si>
+  <si>
     <t>HUEN</t>
   </si>
   <si>
@@ -400,7 +418,7 @@
     <t>HJJJ</t>
   </si>
   <si>
-    <t>TBPB</t>
+    <t>NVVV</t>
   </si>
   <si>
     <t>TAPA</t>
@@ -424,9 +442,6 @@
     <t>SEQM</t>
   </si>
   <si>
-    <t>OIII</t>
-  </si>
-  <si>
     <t>HHAS</t>
   </si>
   <si>
@@ -445,121 +460,133 @@
     <t>E75S</t>
   </si>
   <si>
+    <t>GLEX</t>
+  </si>
+  <si>
+    <t>BCS3</t>
+  </si>
+  <si>
+    <t>F900</t>
+  </si>
+  <si>
+    <t>BE20</t>
+  </si>
+  <si>
+    <t>A359</t>
+  </si>
+  <si>
+    <t>CRJ2</t>
+  </si>
+  <si>
+    <t>A333</t>
+  </si>
+  <si>
+    <t>B789</t>
+  </si>
+  <si>
+    <t>B752</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>AT76</t>
+  </si>
+  <si>
+    <t>E170</t>
+  </si>
+  <si>
     <t>AT75</t>
   </si>
   <si>
-    <t>BCS3</t>
-  </si>
-  <si>
-    <t>FA8X</t>
+    <t>B763</t>
+  </si>
+  <si>
+    <t>A318</t>
+  </si>
+  <si>
+    <t>C560</t>
+  </si>
+  <si>
+    <t>A20N</t>
+  </si>
+  <si>
+    <t>GLF4</t>
+  </si>
+  <si>
+    <t>BE9L</t>
+  </si>
+  <si>
+    <t>C56X</t>
+  </si>
+  <si>
+    <t>A339</t>
+  </si>
+  <si>
+    <t>AT72</t>
+  </si>
+  <si>
+    <t>MA60</t>
+  </si>
+  <si>
+    <t>P180</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>B748</t>
+  </si>
+  <si>
+    <t>B744</t>
+  </si>
+  <si>
+    <t>E195</t>
+  </si>
+  <si>
+    <t>G280</t>
+  </si>
+  <si>
+    <t>IL76</t>
+  </si>
+  <si>
+    <t>CRJ9</t>
+  </si>
+  <si>
+    <t>CL60</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>E75L</t>
+  </si>
+  <si>
+    <t>GLF6</t>
+  </si>
+  <si>
+    <t>B788</t>
+  </si>
+  <si>
+    <t>DH8D</t>
+  </si>
+  <si>
+    <t>GLF5</t>
+  </si>
+  <si>
+    <t>B733</t>
   </si>
   <si>
     <t>B734</t>
   </si>
   <si>
-    <t>A359</t>
-  </si>
-  <si>
-    <t>CRJ2</t>
-  </si>
-  <si>
-    <t>A333</t>
-  </si>
-  <si>
-    <t>B789</t>
-  </si>
-  <si>
-    <t>B752</t>
-  </si>
-  <si>
-    <t>A319</t>
-  </si>
-  <si>
-    <t>A332</t>
-  </si>
-  <si>
-    <t>AT76</t>
-  </si>
-  <si>
-    <t>E170</t>
-  </si>
-  <si>
-    <t>B763</t>
-  </si>
-  <si>
-    <t>A318</t>
-  </si>
-  <si>
-    <t>C560</t>
-  </si>
-  <si>
-    <t>A20N</t>
-  </si>
-  <si>
-    <t>BE9L</t>
-  </si>
-  <si>
-    <t>A339</t>
-  </si>
-  <si>
-    <t>AT72</t>
-  </si>
-  <si>
-    <t>MA60</t>
-  </si>
-  <si>
-    <t>FA50</t>
-  </si>
-  <si>
-    <t>E190</t>
-  </si>
-  <si>
-    <t>B748</t>
-  </si>
-  <si>
-    <t>B744</t>
-  </si>
-  <si>
-    <t>E195</t>
-  </si>
-  <si>
-    <t>G280</t>
-  </si>
-  <si>
-    <t>IL76</t>
-  </si>
-  <si>
-    <t>CRJ9</t>
-  </si>
-  <si>
-    <t>B737</t>
-  </si>
-  <si>
-    <t>E75L</t>
-  </si>
-  <si>
-    <t>B788</t>
-  </si>
-  <si>
-    <t>C68A</t>
-  </si>
-  <si>
-    <t>DH8D</t>
-  </si>
-  <si>
-    <t>TBM8</t>
-  </si>
-  <si>
-    <t>B733</t>
-  </si>
-  <si>
     <t>B735</t>
   </si>
   <si>
     <t>B772</t>
-  </si>
-  <si>
-    <t>UBBB</t>
   </si>
 </sst>
 </file>
@@ -917,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>0.6376565835333333</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E2">
         <v>9037.437615572831</v>
@@ -1002,7 +1029,7 @@
         <v>0.2213250028303551</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1010,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>0.6078310146</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E3">
         <v>1767.093064687314</v>
@@ -1043,7 +1070,7 @@
         <v>0.04327574852295461</v>
       </c>
       <c r="M3" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1051,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>0.6987738282666667</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E4">
         <v>1403.214552949507</v>
@@ -1084,7 +1111,7 @@
         <v>0.03436443803141649</v>
       </c>
       <c r="M4" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1092,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>0.7517421065333333</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>2858.280998310271</v>
@@ -1125,7 +1152,7 @@
         <v>0.06999871832596583</v>
       </c>
       <c r="M5" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1133,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>0.6060793402</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>23216.09844621049</v>
@@ -1166,7 +1193,7 @@
         <v>0.5685575129684202</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1174,40 +1201,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>0.6376565835333333</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E7">
-        <v>699.4475097699309</v>
+        <v>1400.491615119876</v>
       </c>
       <c r="F7">
-        <v>2209.554683363212</v>
+        <v>4424.153012163689</v>
       </c>
       <c r="G7">
-        <v>10.58963529791676</v>
+        <v>15.63029959535436</v>
       </c>
       <c r="H7">
-        <v>0.3637127050803642</v>
+        <v>0.2363071886833905</v>
       </c>
       <c r="I7">
-        <v>0.01398895019539862</v>
+        <v>0.02800983230239753</v>
       </c>
       <c r="J7">
-        <v>860.3204370170149</v>
+        <v>1722.604686597448</v>
       </c>
       <c r="K7">
-        <v>0.8393370117239169</v>
+        <v>1.680589938143851</v>
       </c>
       <c r="L7">
-        <v>0.01712932676987586</v>
+        <v>0.03429775383967044</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1215,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>0.6078310146</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <v>2126.919855761543</v>
@@ -1248,7 +1275,7 @@
         <v>0.05208783320232349</v>
       </c>
       <c r="M8" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1256,40 +1283,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>0.6987738282666667</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E9">
-        <v>1000.311295232781</v>
+        <v>986.7876887973613</v>
       </c>
       <c r="F9">
-        <v>3159.983381640353</v>
+        <v>3117.262308910864</v>
       </c>
       <c r="G9">
-        <v>11.96990470512962</v>
+        <v>10.80118894046666</v>
       </c>
       <c r="H9">
-        <v>0.2751265397648</v>
+        <v>1.90346970301916</v>
       </c>
       <c r="I9">
-        <v>0.02000622590465561</v>
+        <v>0.01973575377594722</v>
       </c>
       <c r="J9">
-        <v>1230.38289313632</v>
+        <v>1213.748857220754</v>
       </c>
       <c r="K9">
-        <v>1.200373554279336</v>
+        <v>1.184145226556834</v>
       </c>
       <c r="L9">
-        <v>0.0244974194750885</v>
+        <v>0.02416622911340476</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1297,40 +1324,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10">
-        <v>0.7135949214193548</v>
+        <v>0.7048325608666667</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E10">
-        <v>1141.253969507462</v>
+        <v>171.0677430621078</v>
       </c>
       <c r="F10">
-        <v>3605.221289674074</v>
+        <v>540.4030003331985</v>
       </c>
       <c r="G10">
-        <v>16.31928713047076</v>
+        <v>2.589965629960313</v>
       </c>
       <c r="H10">
-        <v>0.2271616579611158</v>
+        <v>0.08895522639229607</v>
       </c>
       <c r="I10">
-        <v>0.02282507939014925</v>
+        <v>0.003421354861242156</v>
       </c>
       <c r="J10">
-        <v>1403.742382494179</v>
+        <v>210.4133239663926</v>
       </c>
       <c r="K10">
-        <v>1.369504763408955</v>
+        <v>0.2052812916745294</v>
       </c>
       <c r="L10">
-        <v>0.02794907680426438</v>
+        <v>0.004189414115806722</v>
       </c>
       <c r="M10" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1338,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>0.5283800689</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E11">
         <v>1387.623202517456</v>
@@ -1371,7 +1398,7 @@
         <v>0.03398260904124382</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1379,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>0.5245896810666667</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E12">
         <v>1525.649799962888</v>
@@ -1412,7 +1439,7 @@
         <v>0.03736285224398909</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1420,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>0.6376565835333333</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E13">
         <v>55594.07598016447</v>
@@ -1453,7 +1480,7 @@
         <v>1.361487575024436</v>
       </c>
       <c r="M13" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1461,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>0.6549266972258064</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>1421.07294742778</v>
@@ -1494,7 +1521,7 @@
         <v>0.03480178646761911</v>
       </c>
       <c r="M14" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1502,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>0.5268639137666666</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E15">
         <v>1430.615509722902</v>
@@ -1535,7 +1562,7 @@
         <v>0.03503548187076495</v>
       </c>
       <c r="M15" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1543,13 +1570,13 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>0.6376565835333333</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E16">
         <v>8157.432436788262</v>
@@ -1576,7 +1603,7 @@
         <v>0.1997738555948145</v>
       </c>
       <c r="M16" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1584,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C17">
         <v>0.6385780525666667</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>2021.131048097037</v>
@@ -1617,7 +1644,7 @@
         <v>0.04949708689217234</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1625,13 +1652,13 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>0.6385780525666667</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>6017.458308798446</v>
@@ -1658,7 +1685,7 @@
         <v>0.1473663259297578</v>
       </c>
       <c r="M18" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1666,13 +1693,13 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>0.6104585262</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E19">
         <v>11673.93434117623</v>
@@ -1699,7 +1726,7 @@
         <v>0.285892269579826</v>
       </c>
       <c r="M19" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1707,13 +1734,13 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>0.6987738282666667</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E20">
         <v>2932.111441740637</v>
@@ -1740,7 +1767,7 @@
         <v>0.07180681081813803</v>
       </c>
       <c r="M20" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1748,13 +1775,13 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>0.6987738282666667</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E21">
         <v>1770.65375629472</v>
@@ -1781,7 +1808,7 @@
         <v>0.04336294913374824</v>
       </c>
       <c r="M21" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1789,13 +1816,13 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>0.6987738282666667</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E22">
         <v>1818.031031159861</v>
@@ -1822,7 +1849,7 @@
         <v>0.04452320892636395</v>
       </c>
       <c r="M22" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1830,13 +1857,13 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C23">
         <v>0.6468712738666667</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E23">
         <v>2608.341729902184</v>
@@ -1863,7 +1890,7 @@
         <v>0.06387775665066574</v>
       </c>
       <c r="M23" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1871,13 +1898,13 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>0.7058423496333333</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E24">
         <v>1362.616147101045</v>
@@ -1904,7 +1931,7 @@
         <v>0.0333701913575766</v>
       </c>
       <c r="M24" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1912,13 +1939,13 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>0.6376565835333333</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E25">
         <v>10767.20664189709</v>
@@ -1945,7 +1972,7 @@
         <v>0.2636866932709492</v>
       </c>
       <c r="M25" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1953,13 +1980,13 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26">
         <v>0.6060793402</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E26">
         <v>5463.620086802503</v>
@@ -1986,7 +2013,7 @@
         <v>0.1338029409012858</v>
       </c>
       <c r="M26" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1994,13 +2021,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>0.6987738282666667</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E27">
         <v>818.520700360367</v>
@@ -2027,7 +2054,7 @@
         <v>0.02004540490678449</v>
       </c>
       <c r="M27" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2035,40 +2062,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C28">
-        <v>0.6987738282666667</v>
+        <v>0.654094402516129</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>1304.581708027411</v>
+        <v>4637.197303175813</v>
       </c>
       <c r="F28">
-        <v>4121.173615658589</v>
+        <v>14648.9062807324</v>
       </c>
       <c r="G28">
-        <v>14.2702542012354</v>
+        <v>42.57009235904031</v>
       </c>
       <c r="H28">
-        <v>0.060055319394946</v>
+        <v>0.5015699266060443</v>
       </c>
       <c r="I28">
-        <v>0.02609163416054821</v>
+        <v>0.09274394606351626</v>
       </c>
       <c r="J28">
-        <v>1604.635500873715</v>
+        <v>5703.75268290625</v>
       </c>
       <c r="K28">
-        <v>1.565498049632892</v>
+        <v>5.564636763810975</v>
       </c>
       <c r="L28">
-        <v>0.03194893978842638</v>
+        <v>0.1135640155879791</v>
       </c>
       <c r="M28" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2076,40 +2103,40 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>0.6987738282666667</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E29">
-        <v>298.859516483682</v>
+        <v>1304.581708027411</v>
       </c>
       <c r="F29">
-        <v>944.0972125719513</v>
+        <v>4121.173615658589</v>
       </c>
       <c r="G29">
-        <v>4.524733079562945</v>
+        <v>14.2702542012354</v>
       </c>
       <c r="H29">
-        <v>0.1554069485715147</v>
+        <v>0.060055319394946</v>
       </c>
       <c r="I29">
-        <v>0.005977190329673639</v>
+        <v>0.02609163416054821</v>
       </c>
       <c r="J29">
-        <v>367.5972052749287</v>
+        <v>1604.635500873715</v>
       </c>
       <c r="K29">
-        <v>0.3586314197804183</v>
+        <v>1.565498049632892</v>
       </c>
       <c r="L29">
-        <v>0.007319008566947313</v>
+        <v>0.03194893978842638</v>
       </c>
       <c r="M29" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2117,40 +2144,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C30">
-        <v>0.609582689</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E30">
-        <v>8307.483215382497</v>
+        <v>298.859516483682</v>
       </c>
       <c r="F30">
-        <v>26243.33947739331</v>
+        <v>944.0972125719513</v>
       </c>
       <c r="G30">
-        <v>88.41166424170385</v>
+        <v>4.524733079562945</v>
       </c>
       <c r="H30">
-        <v>0.8103799121248978</v>
+        <v>0.1554069485715147</v>
       </c>
       <c r="I30">
-        <v>0.16614966430765</v>
+        <v>0.005977190329673639</v>
       </c>
       <c r="J30">
-        <v>10218.20435492047</v>
+        <v>367.5972052749287</v>
       </c>
       <c r="K30">
-        <v>9.968979858458997</v>
+        <v>0.3586314197804183</v>
       </c>
       <c r="L30">
-        <v>0.2034485685399796</v>
+        <v>0.007319008566947313</v>
       </c>
       <c r="M30" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2158,40 +2185,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31">
-        <v>0.7873938323333334</v>
+        <v>0.609582689</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E31">
-        <v>8046.886473471678</v>
+        <v>8307.483215382497</v>
       </c>
       <c r="F31">
-        <v>25420.11436969703</v>
+        <v>26243.33947739331</v>
       </c>
       <c r="G31">
-        <v>93.28181804989359</v>
+        <v>88.41166424170385</v>
       </c>
       <c r="H31">
-        <v>0.8708284060948892</v>
+        <v>0.8103799121248978</v>
       </c>
       <c r="I31">
-        <v>0.1609377294694335</v>
+        <v>0.16614966430765</v>
       </c>
       <c r="J31">
-        <v>9897.670362370165</v>
+        <v>10218.20435492047</v>
       </c>
       <c r="K31">
-        <v>9.656263768166014</v>
+        <v>9.968979858458997</v>
       </c>
       <c r="L31">
-        <v>0.1970666075135921</v>
+        <v>0.2034485685399796</v>
       </c>
       <c r="M31" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2199,40 +2226,40 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C32">
-        <v>0.6987738282666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E32">
-        <v>1729.66810991181</v>
+        <v>8046.886473471678</v>
       </c>
       <c r="F32">
-        <v>5464.021559211407</v>
+        <v>25420.11436969703</v>
       </c>
       <c r="G32">
-        <v>30.0156317696596</v>
+        <v>93.28181804989359</v>
       </c>
       <c r="H32">
-        <v>0.5801433149385884</v>
+        <v>0.8708284060948892</v>
       </c>
       <c r="I32">
-        <v>0.0345933621982362</v>
+        <v>0.1609377294694335</v>
       </c>
       <c r="J32">
-        <v>2127.491775191526</v>
+        <v>9897.670362370165</v>
       </c>
       <c r="K32">
-        <v>2.075601731894172</v>
+        <v>9.656263768166014</v>
       </c>
       <c r="L32">
-        <v>0.04235921901824841</v>
+        <v>0.1970666075135921</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2240,40 +2267,40 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33">
-        <v>0.6060793402</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E33">
-        <v>17598.10380535665</v>
+        <v>1729.66810991181</v>
       </c>
       <c r="F33">
-        <v>55592.40992112165</v>
+        <v>5464.021559211407</v>
       </c>
       <c r="G33">
-        <v>294.535209607053</v>
+        <v>30.0156317696596</v>
       </c>
       <c r="H33">
-        <v>0.938391402181201</v>
+        <v>0.5801433149385884</v>
       </c>
       <c r="I33">
-        <v>0.351962076107133</v>
+        <v>0.0345933621982362</v>
       </c>
       <c r="J33">
-        <v>21645.66768058868</v>
+        <v>2127.491775191526</v>
       </c>
       <c r="K33">
-        <v>21.11772456642798</v>
+        <v>2.075601731894172</v>
       </c>
       <c r="L33">
-        <v>0.4309739707434281</v>
+        <v>0.04235921901824841</v>
       </c>
       <c r="M33" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2281,40 +2308,40 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C34">
-        <v>0.6385780525666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E34">
-        <v>14125.14451866826</v>
+        <v>17598.10380535665</v>
       </c>
       <c r="F34">
-        <v>44621.33153447305</v>
+        <v>55592.40992112165</v>
       </c>
       <c r="G34">
-        <v>154.8125739642822</v>
+        <v>294.535209607053</v>
       </c>
       <c r="H34">
-        <v>1.070441011036839</v>
+        <v>0.938391402181201</v>
       </c>
       <c r="I34">
-        <v>0.2825028903733653</v>
+        <v>0.351962076107133</v>
       </c>
       <c r="J34">
-        <v>17373.92775796197</v>
+        <v>21645.66768058868</v>
       </c>
       <c r="K34">
-        <v>16.95017342240192</v>
+        <v>21.11772456642798</v>
       </c>
       <c r="L34">
-        <v>0.3459219065796309</v>
+        <v>0.4309739707434281</v>
       </c>
       <c r="M34" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2322,40 +2349,40 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C35">
-        <v>0.6520136657419355</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E35">
-        <v>429.7594269623636</v>
+        <v>14125.14451866826</v>
       </c>
       <c r="F35">
-        <v>1357.610029774107</v>
+        <v>44621.33153447305</v>
       </c>
       <c r="G35">
-        <v>6.506557724210186</v>
+        <v>154.8125739642822</v>
       </c>
       <c r="H35">
-        <v>0.2234749020204291</v>
+        <v>1.070441011036839</v>
       </c>
       <c r="I35">
-        <v>0.008595188539247274</v>
+        <v>0.2825028903733653</v>
       </c>
       <c r="J35">
-        <v>528.6040951637071</v>
+        <v>17373.92775796197</v>
       </c>
       <c r="K35">
-        <v>0.5157113123548364</v>
+        <v>16.95017342240192</v>
       </c>
       <c r="L35">
-        <v>0.01052472066030278</v>
+        <v>0.3459219065796309</v>
       </c>
       <c r="M35" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2363,40 +2390,40 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C36">
-        <v>0.6987738282666667</v>
+        <v>0.6520136657419355</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E36">
-        <v>1965.911725824197</v>
+        <v>429.7594269623636</v>
       </c>
       <c r="F36">
-        <v>6210.31514187864</v>
+        <v>1357.610029774107</v>
       </c>
       <c r="G36">
-        <v>23.15409149218966</v>
+        <v>6.506557724210186</v>
       </c>
       <c r="H36">
-        <v>0.7996873027883161</v>
+        <v>0.2234749020204291</v>
       </c>
       <c r="I36">
-        <v>0.03931823451648395</v>
+        <v>0.008595188539247274</v>
       </c>
       <c r="J36">
-        <v>2418.071422763763</v>
+        <v>528.6040951637071</v>
       </c>
       <c r="K36">
-        <v>2.359094070989037</v>
+        <v>0.5157113123548364</v>
       </c>
       <c r="L36">
-        <v>0.04814477695895993</v>
+        <v>0.01052472066030278</v>
       </c>
       <c r="M36" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2404,40 +2431,40 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C37">
-        <v>0.7873938323333334</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E37">
-        <v>12664.27286535921</v>
+        <v>1965.911725824197</v>
       </c>
       <c r="F37">
-        <v>40006.43798166973</v>
+        <v>6210.31514187864</v>
       </c>
       <c r="G37">
-        <v>143.1074254465349</v>
+        <v>23.15409149218966</v>
       </c>
       <c r="H37">
-        <v>0.9545854083883302</v>
+        <v>0.7996873027883161</v>
       </c>
       <c r="I37">
-        <v>0.2532854573071841</v>
+        <v>0.03931823451648395</v>
       </c>
       <c r="J37">
-        <v>15577.05562439182</v>
+        <v>2418.071422763763</v>
       </c>
       <c r="K37">
-        <v>15.19712743843105</v>
+        <v>2.359094070989037</v>
       </c>
       <c r="L37">
-        <v>0.3101454579271642</v>
+        <v>0.04814477695895993</v>
       </c>
       <c r="M37" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2445,40 +2472,40 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>0.7885316846666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E38">
-        <v>9811.926207413104</v>
+        <v>12664.27286535921</v>
       </c>
       <c r="F38">
-        <v>30995.87488921799</v>
+        <v>40006.43798166973</v>
       </c>
       <c r="G38">
-        <v>108.9539920959469</v>
+        <v>143.1074254465349</v>
       </c>
       <c r="H38">
-        <v>0.9267904105199509</v>
+        <v>0.9545854083883302</v>
       </c>
       <c r="I38">
-        <v>0.1962385241482621</v>
+        <v>0.2532854573071841</v>
       </c>
       <c r="J38">
-        <v>12068.66923511812</v>
+        <v>15577.05562439182</v>
       </c>
       <c r="K38">
-        <v>11.77431144889573</v>
+        <v>15.19712743843105</v>
       </c>
       <c r="L38">
-        <v>0.2402920703856271</v>
+        <v>0.3101454579271642</v>
       </c>
       <c r="M38" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2486,40 +2513,40 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>0.7142789718387097</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E39">
-        <v>1107.37631857947</v>
+        <v>9811.926207413104</v>
       </c>
       <c r="F39">
-        <v>3498.201790392545</v>
+        <v>30995.87488921799</v>
       </c>
       <c r="G39">
-        <v>7.106044917116102</v>
+        <v>108.9539920959469</v>
       </c>
       <c r="H39">
-        <v>6.847847463224937</v>
+        <v>0.9267904105199509</v>
       </c>
       <c r="I39">
-        <v>0.0221475263715894</v>
+        <v>0.1962385241482621</v>
       </c>
       <c r="J39">
-        <v>1362.072871852748</v>
+        <v>12068.66923511812</v>
       </c>
       <c r="K39">
-        <v>1.328851582295364</v>
+        <v>11.77431144889573</v>
       </c>
       <c r="L39">
-        <v>0.02711942004684416</v>
+        <v>0.2402920703856271</v>
       </c>
       <c r="M39" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2530,37 +2557,37 @@
         <v>93</v>
       </c>
       <c r="C40">
-        <v>0.6422639287</v>
+        <v>0.7142789718387097</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E40">
-        <v>996.5334838713029</v>
+        <v>1107.37631857947</v>
       </c>
       <c r="F40">
-        <v>3148.049275549446</v>
+        <v>3498.201790392545</v>
       </c>
       <c r="G40">
-        <v>12.94004357000291</v>
+        <v>7.106044917116102</v>
       </c>
       <c r="H40">
-        <v>0.3470468702496472</v>
+        <v>6.847847463224937</v>
       </c>
       <c r="I40">
-        <v>0.01993066967742605</v>
+        <v>0.0221475263715894</v>
       </c>
       <c r="J40">
-        <v>1225.736185161702</v>
+        <v>1362.072871852748</v>
       </c>
       <c r="K40">
-        <v>1.195840180645563</v>
+        <v>1.328851582295364</v>
       </c>
       <c r="L40">
-        <v>0.02440490164582782</v>
+        <v>0.02711942004684416</v>
       </c>
       <c r="M40" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2568,40 +2595,40 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C41">
-        <v>0.6613076226666667</v>
+        <v>0.6422639287</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E41">
-        <v>3010.245421148802</v>
+        <v>996.5334838713029</v>
       </c>
       <c r="F41">
-        <v>9509.365285409063</v>
+        <v>3148.049275549446</v>
       </c>
       <c r="G41">
-        <v>44.9943990053436</v>
+        <v>12.94004357000291</v>
       </c>
       <c r="H41">
-        <v>0.1652321801808448</v>
+        <v>0.3470468702496472</v>
       </c>
       <c r="I41">
-        <v>0.06020490842297604</v>
+        <v>0.01993066967742605</v>
       </c>
       <c r="J41">
-        <v>3702.601868013026</v>
+        <v>1225.736185161702</v>
       </c>
       <c r="K41">
-        <v>3.612294505378562</v>
+        <v>1.195840180645563</v>
       </c>
       <c r="L41">
-        <v>0.07372029602813393</v>
+        <v>0.02440490164582782</v>
       </c>
       <c r="M41" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2609,40 +2636,40 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C42">
-        <v>0.8074347157096774</v>
+        <v>0.6613076226666667</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E42">
-        <v>6963.314565287868</v>
+        <v>3010.245421148802</v>
       </c>
       <c r="F42">
-        <v>21997.11071174437</v>
+        <v>9509.365285409063</v>
       </c>
       <c r="G42">
-        <v>94.67954732041994</v>
+        <v>44.9943990053436</v>
       </c>
       <c r="H42">
-        <v>0.476605424184047</v>
+        <v>0.1652321801808448</v>
       </c>
       <c r="I42">
-        <v>0.1392662913057573</v>
+        <v>0.06020490842297604</v>
       </c>
       <c r="J42">
-        <v>8564.876915304076</v>
+        <v>3702.601868013026</v>
       </c>
       <c r="K42">
-        <v>8.355977478345441</v>
+        <v>3.612294505378562</v>
       </c>
       <c r="L42">
-        <v>0.1705301526192947</v>
+        <v>0.07372029602813393</v>
       </c>
       <c r="M42" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2650,40 +2677,40 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C43">
-        <v>0.6376565835333333</v>
+        <v>0.8074347157096774</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E43">
-        <v>4660.173135147256</v>
+        <v>6963.314565287868</v>
       </c>
       <c r="F43">
-        <v>14721.48693393018</v>
+        <v>21997.11071174437</v>
       </c>
       <c r="G43">
-        <v>52.63381934339095</v>
+        <v>94.67954732041994</v>
       </c>
       <c r="H43">
-        <v>0.3272122664442593</v>
+        <v>0.476605424184047</v>
       </c>
       <c r="I43">
-        <v>0.09320346270294511</v>
+        <v>0.1392662913057573</v>
       </c>
       <c r="J43">
-        <v>5732.012956231123</v>
+        <v>8564.876915304076</v>
       </c>
       <c r="K43">
-        <v>5.592207762176706</v>
+        <v>8.355977478345441</v>
       </c>
       <c r="L43">
-        <v>0.1141266890240144</v>
+        <v>0.1705301526192947</v>
       </c>
       <c r="M43" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2691,40 +2718,40 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>0.7058423496333333</v>
+        <v>0.5425308502666667</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E44">
-        <v>238.7055374493033</v>
+        <v>1226.093411789135</v>
       </c>
       <c r="F44">
-        <v>754.0707928023493</v>
+        <v>3873.229087841878</v>
       </c>
       <c r="G44">
-        <v>3.614001836982453</v>
+        <v>14.51762544238132</v>
       </c>
       <c r="H44">
-        <v>0.1241268794736377</v>
+        <v>21.89883636474594</v>
       </c>
       <c r="I44">
-        <v>0.004774110748986067</v>
+        <v>0.0245218682357827</v>
       </c>
       <c r="J44">
-        <v>293.6078110626431</v>
+        <v>1508.094896500636</v>
       </c>
       <c r="K44">
-        <v>0.286446644939164</v>
+        <v>1.471312094146962</v>
       </c>
       <c r="L44">
-        <v>0.005845849896717632</v>
+        <v>0.03002677743157066</v>
       </c>
       <c r="M44" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2732,40 +2759,40 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C45">
-        <v>0.7151910390645161</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="E45">
-        <v>1405.743672025358</v>
+        <v>4660.173135147256</v>
       </c>
       <c r="F45">
-        <v>4440.744259928107</v>
+        <v>14721.48693393018</v>
       </c>
       <c r="G45">
-        <v>18.82378031463251</v>
+        <v>52.63381934339095</v>
       </c>
       <c r="H45">
-        <v>0.2710050185925469</v>
+        <v>0.3272122664442593</v>
       </c>
       <c r="I45">
-        <v>0.02811487344050716</v>
+        <v>0.09320346270294511</v>
       </c>
       <c r="J45">
-        <v>1729.064716591191</v>
+        <v>5732.012956231123</v>
       </c>
       <c r="K45">
-        <v>1.68689240643043</v>
+        <v>5.592207762176706</v>
       </c>
       <c r="L45">
-        <v>0.03442637564143734</v>
+        <v>0.1141266890240144</v>
       </c>
       <c r="M45" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2773,40 +2800,40 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C46">
-        <v>0.8092332566451612</v>
+        <v>0.7058423496333333</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="E46">
-        <v>8715.629571708389</v>
+        <v>238.7055374493033</v>
       </c>
       <c r="F46">
-        <v>27532.67381702681</v>
+        <v>754.0707928023493</v>
       </c>
       <c r="G46">
-        <v>97.68685126158007</v>
+        <v>3.614001836982453</v>
       </c>
       <c r="H46">
-        <v>0.9639702099948199</v>
+        <v>0.1241268794736377</v>
       </c>
       <c r="I46">
-        <v>0.1743125914341678</v>
+        <v>0.004774110748986067</v>
       </c>
       <c r="J46">
-        <v>10720.22437320132</v>
+        <v>293.6078110626431</v>
       </c>
       <c r="K46">
-        <v>10.45875548605007</v>
+        <v>0.286446644939164</v>
       </c>
       <c r="L46">
-        <v>0.2134439895112259</v>
+        <v>0.005845849896717632</v>
       </c>
       <c r="M46" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2814,40 +2841,40 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C47">
-        <v>0.6069551773999999</v>
+        <v>0.7129108709999999</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E47">
-        <v>31816.26650967414</v>
+        <v>334.9673324857424</v>
       </c>
       <c r="F47">
-        <v>100507.5859040606</v>
+        <v>1058.16180332246</v>
       </c>
       <c r="G47">
-        <v>778.4936608038299</v>
+        <v>5.071405413834138</v>
       </c>
       <c r="H47">
-        <v>0.0129935579494328</v>
+        <v>0.174183012892586</v>
       </c>
       <c r="I47">
-        <v>0.6363253301934827</v>
+        <v>0.006699346649714845</v>
       </c>
       <c r="J47">
-        <v>39134.00780689919</v>
+        <v>412.0098189574631</v>
       </c>
       <c r="K47">
-        <v>38.17951981160897</v>
+        <v>0.4019607989828908</v>
       </c>
       <c r="L47">
-        <v>0.7791738737063054</v>
+        <v>0.00820328161189573</v>
       </c>
       <c r="M47" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2855,40 +2882,40 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C48">
-        <v>0.6997836170333334</v>
+        <v>0.8092332566451612</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E48">
-        <v>1306.707907530174</v>
+        <v>8715.629571708389</v>
       </c>
       <c r="F48">
-        <v>4127.890279887819</v>
+        <v>27532.67381702681</v>
       </c>
       <c r="G48">
-        <v>17.09672453287849</v>
+        <v>97.68685126158007</v>
       </c>
       <c r="H48">
-        <v>0.4174175244716497</v>
+        <v>0.9639702099948199</v>
       </c>
       <c r="I48">
-        <v>0.02613415815060348</v>
+        <v>0.1743125914341678</v>
       </c>
       <c r="J48">
-        <v>1607.250726262114</v>
+        <v>10720.22437320132</v>
       </c>
       <c r="K48">
-        <v>1.568049489036208</v>
+        <v>10.45875548605007</v>
       </c>
       <c r="L48">
-        <v>0.03200100998033079</v>
+        <v>0.2134439895112259</v>
       </c>
       <c r="M48" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2896,40 +2923,40 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C49">
-        <v>0.6987738282666667</v>
+        <v>0.6069551773999999</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E49">
-        <v>2492.269369410186</v>
+        <v>31816.26650967414</v>
       </c>
       <c r="F49">
-        <v>7873.078937966779</v>
+        <v>100507.5859040606</v>
       </c>
       <c r="G49">
-        <v>33.09497856666978</v>
+        <v>778.4936608038299</v>
       </c>
       <c r="H49">
-        <v>0.1760864130805109</v>
+        <v>0.0129935579494328</v>
       </c>
       <c r="I49">
-        <v>0.04984538738820372</v>
+        <v>0.6363253301934827</v>
       </c>
       <c r="J49">
-        <v>3065.49132437453</v>
+        <v>39134.00780689919</v>
       </c>
       <c r="K49">
-        <v>2.990723243292224</v>
+        <v>38.17951981160897</v>
       </c>
       <c r="L49">
-        <v>0.06103516823045354</v>
+        <v>0.7791738737063054</v>
       </c>
       <c r="M49" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2937,40 +2964,40 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>0.6987738282666667</v>
+        <v>0.7048325608666667</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E50">
-        <v>340.141782771223</v>
+        <v>190.4976344599362</v>
       </c>
       <c r="F50">
-        <v>1074.507891774294</v>
+        <v>601.7820272589383</v>
       </c>
       <c r="G50">
-        <v>5.149746591156317</v>
+        <v>2.884134185723433</v>
       </c>
       <c r="H50">
-        <v>0.176873727041036</v>
+        <v>0.09905876991916683</v>
       </c>
       <c r="I50">
-        <v>0.006802835655424461</v>
+        <v>0.003809952689198723</v>
       </c>
       <c r="J50">
-        <v>418.3743928086044</v>
+        <v>234.3120903857215</v>
       </c>
       <c r="K50">
-        <v>0.4081701393254677</v>
+        <v>0.2285971613519233</v>
       </c>
       <c r="L50">
-        <v>0.008330002843376894</v>
+        <v>0.004665248190855578</v>
       </c>
       <c r="M50" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2978,40 +3005,40 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C51">
-        <v>0.7885316846666667</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E51">
-        <v>11631.3833422366</v>
+        <v>1306.707907530174</v>
       </c>
       <c r="F51">
-        <v>36743.53997812542</v>
+        <v>4127.890279887819</v>
       </c>
       <c r="G51">
-        <v>130.0639608571987</v>
+        <v>17.09672453287849</v>
       </c>
       <c r="H51">
-        <v>1.060143276059966</v>
+        <v>0.4174175244716497</v>
       </c>
       <c r="I51">
-        <v>0.232627666844732</v>
+        <v>0.02613415815060348</v>
       </c>
       <c r="J51">
-        <v>14306.60151095102</v>
+        <v>1607.250726262114</v>
       </c>
       <c r="K51">
-        <v>13.95766001068392</v>
+        <v>1.568049489036208</v>
       </c>
       <c r="L51">
-        <v>0.2848502042996718</v>
+        <v>0.03200100998033079</v>
       </c>
       <c r="M51" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3019,40 +3046,40 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>0.6987738282666667</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E52">
-        <v>1748.637397380423</v>
+        <v>2492.269369410186</v>
       </c>
       <c r="F52">
-        <v>5523.945538324756</v>
+        <v>7873.078937966779</v>
       </c>
       <c r="G52">
-        <v>25.43592671720636</v>
+        <v>33.09497856666978</v>
       </c>
       <c r="H52">
-        <v>0.1224067343498868</v>
+        <v>0.1760864130805109</v>
       </c>
       <c r="I52">
-        <v>0.03497274794760846</v>
+        <v>0.04984538738820372</v>
       </c>
       <c r="J52">
-        <v>2150.82399877792</v>
+        <v>3065.49132437453</v>
       </c>
       <c r="K52">
-        <v>2.098364876856508</v>
+        <v>2.990723243292224</v>
       </c>
       <c r="L52">
-        <v>0.04282377299707158</v>
+        <v>0.06103516823045354</v>
       </c>
       <c r="M52" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3060,40 +3087,40 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C53">
-        <v>0.651181371032258</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E53">
-        <v>858.3179663186111</v>
+        <v>340.141782771223</v>
       </c>
       <c r="F53">
-        <v>2711.426455600492</v>
+        <v>1074.507891774294</v>
       </c>
       <c r="G53">
-        <v>12.99493401006377</v>
+        <v>5.149746591156317</v>
       </c>
       <c r="H53">
-        <v>0.4463253424856777</v>
+        <v>0.176873727041036</v>
       </c>
       <c r="I53">
-        <v>0.01716635932637221</v>
+        <v>0.006802835655424461</v>
       </c>
       <c r="J53">
-        <v>1055.731098571891</v>
+        <v>418.3743928086044</v>
       </c>
       <c r="K53">
-        <v>1.029981559582333</v>
+        <v>0.4081701393254677</v>
       </c>
       <c r="L53">
-        <v>0.02102003182821088</v>
+        <v>0.008330002843376894</v>
       </c>
       <c r="M53" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3101,40 +3128,40 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C54">
-        <v>0.6987738282666667</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E54">
-        <v>1241.812590155973</v>
+        <v>11631.3833422366</v>
       </c>
       <c r="F54">
-        <v>3922.885972302719</v>
+        <v>36743.53997812542</v>
       </c>
       <c r="G54">
-        <v>24.25144729519003</v>
+        <v>130.0639608571987</v>
       </c>
       <c r="H54">
-        <v>0.01875345641171579</v>
+        <v>1.060143276059966</v>
       </c>
       <c r="I54">
-        <v>0.02483625180311946</v>
+        <v>0.232627666844732</v>
       </c>
       <c r="J54">
-        <v>1527.429485891847</v>
+        <v>14306.60151095102</v>
       </c>
       <c r="K54">
-        <v>1.490175108187168</v>
+        <v>13.95766001068392</v>
       </c>
       <c r="L54">
-        <v>0.03041173690177894</v>
+        <v>0.2848502042996718</v>
       </c>
       <c r="M54" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3142,40 +3169,40 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C55">
-        <v>0.7098815047</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E55">
-        <v>661.1187610414506</v>
+        <v>1748.637397380423</v>
       </c>
       <c r="F55">
-        <v>2088.474166129943</v>
+        <v>5523.945538324756</v>
       </c>
       <c r="G55">
-        <v>7.483999181272479</v>
+        <v>25.43592671720636</v>
       </c>
       <c r="H55">
-        <v>1.84440297691006</v>
+        <v>0.1224067343498868</v>
       </c>
       <c r="I55">
-        <v>0.01322237522082901</v>
+        <v>0.03497274794760846</v>
       </c>
       <c r="J55">
-        <v>813.1760760809841</v>
+        <v>2150.82399877792</v>
       </c>
       <c r="K55">
-        <v>0.7933425132497406</v>
+        <v>2.098364876856508</v>
       </c>
       <c r="L55">
-        <v>0.016190663535709</v>
+        <v>0.04282377299707158</v>
       </c>
       <c r="M55" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3183,40 +3210,40 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C56">
-        <v>0.6987738282666667</v>
+        <v>0.651181371032258</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E56">
-        <v>519.3528033687573</v>
+        <v>858.3179663186111</v>
       </c>
       <c r="F56">
-        <v>1640.635505841904</v>
+        <v>2711.426455600492</v>
       </c>
       <c r="G56">
-        <v>7.863001443002985</v>
+        <v>12.99493401006377</v>
       </c>
       <c r="H56">
-        <v>0.2700634577517538</v>
+        <v>0.4463253424856777</v>
       </c>
       <c r="I56">
-        <v>0.01038705606737514</v>
+        <v>0.01716635932637221</v>
       </c>
       <c r="J56">
-        <v>638.8039481435716</v>
+        <v>1055.731098571891</v>
       </c>
       <c r="K56">
-        <v>0.6232233640425088</v>
+        <v>1.029981559582333</v>
       </c>
       <c r="L56">
-        <v>0.01271884416413283</v>
+        <v>0.02102003182821088</v>
       </c>
       <c r="M56" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3224,40 +3251,40 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>0.6987738282666667</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E57">
-        <v>1520.696235670865</v>
+        <v>1241.812590155973</v>
       </c>
       <c r="F57">
-        <v>4803.879408484262</v>
+        <v>3922.885972302719</v>
       </c>
       <c r="G57">
-        <v>18.59444042513595</v>
+        <v>24.25144729519003</v>
       </c>
       <c r="H57">
-        <v>1.205063132505622</v>
+        <v>0.01875345641171579</v>
       </c>
       <c r="I57">
-        <v>0.0304139247134173</v>
+        <v>0.02483625180311946</v>
       </c>
       <c r="J57">
-        <v>1870.456369875164</v>
+        <v>1527.429485891847</v>
       </c>
       <c r="K57">
-        <v>1.824835482805038</v>
+        <v>1.490175108187168</v>
       </c>
       <c r="L57">
-        <v>0.03724154046540894</v>
+        <v>0.03041173690177894</v>
       </c>
       <c r="M57" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3265,136 +3292,136 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C58">
-        <v>0.6385780525666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E58">
-        <v>78211.7468328258</v>
+        <v>326.1511845724346</v>
       </c>
       <c r="F58">
-        <v>247070.9082448967</v>
+        <v>1030.311592064321</v>
       </c>
       <c r="G58">
-        <v>1089.399190788805</v>
+        <v>4.93792893442666</v>
       </c>
       <c r="H58">
-        <v>4.155993855991317</v>
+        <v>0.169598615977666</v>
       </c>
       <c r="I58">
-        <v>1.564234936656516</v>
+        <v>0.006523023691448692</v>
       </c>
       <c r="J58">
-        <v>96200.44860437574</v>
+        <v>401.1659570240946</v>
       </c>
       <c r="K58">
-        <v>93.85409619939094</v>
+        <v>0.3913814214869215</v>
       </c>
       <c r="L58">
-        <v>1.915389718354917</v>
+        <v>0.007987375948712683</v>
       </c>
       <c r="M58" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C59">
-        <v>0.6385780525666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E59">
-        <v>78211.7468328258</v>
+        <v>519.3528033687573</v>
       </c>
       <c r="F59">
-        <v>247070.9082448967</v>
+        <v>1640.635505841904</v>
       </c>
       <c r="G59">
-        <v>1089.399190788805</v>
+        <v>7.863001443002985</v>
       </c>
       <c r="H59">
-        <v>4.155993855991317</v>
+        <v>0.2700634577517538</v>
       </c>
       <c r="I59">
-        <v>1.564234936656516</v>
+        <v>0.01038705606737514</v>
       </c>
       <c r="J59">
-        <v>96200.44860437574</v>
+        <v>638.8039481435716</v>
       </c>
       <c r="K59">
-        <v>93.85409619939094</v>
+        <v>0.6232233640425088</v>
       </c>
       <c r="L59">
-        <v>1.915389718354917</v>
+        <v>0.01271884416413283</v>
       </c>
       <c r="M59" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C60">
-        <v>0.6385780525666667</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E60">
-        <v>78211.7468328258</v>
+        <v>1520.696235670865</v>
       </c>
       <c r="F60">
-        <v>247070.9082448967</v>
+        <v>4803.879408484262</v>
       </c>
       <c r="G60">
-        <v>1089.399190788805</v>
+        <v>18.59444042513595</v>
       </c>
       <c r="H60">
-        <v>4.155993855991317</v>
+        <v>1.205063132505622</v>
       </c>
       <c r="I60">
-        <v>1.564234936656516</v>
+        <v>0.0304139247134173</v>
       </c>
       <c r="J60">
-        <v>96200.44860437574</v>
+        <v>1870.456369875164</v>
       </c>
       <c r="K60">
-        <v>93.85409619939094</v>
+        <v>1.824835482805038</v>
       </c>
       <c r="L60">
-        <v>1.915389718354917</v>
+        <v>0.03724154046540894</v>
       </c>
       <c r="M60" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>0.6385780525666667</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E61">
         <v>78211.7468328258</v>
@@ -3421,144 +3448,144 @@
         <v>1.915389718354917</v>
       </c>
       <c r="M61" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C62">
-        <v>0.6997836170333334</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E62">
-        <v>13993.16762631019</v>
+        <v>78211.7468328258</v>
       </c>
       <c r="F62">
-        <v>44204.4165315139</v>
+        <v>247070.9082448967</v>
       </c>
       <c r="G62">
-        <v>160.3214339605434</v>
+        <v>1089.399190788805</v>
       </c>
       <c r="H62">
-        <v>0.9320525821888116</v>
+        <v>4.155993855991317</v>
       </c>
       <c r="I62">
-        <v>0.2798633525262039</v>
+        <v>1.564234936656516</v>
       </c>
       <c r="J62">
-        <v>17211.59618036154</v>
+        <v>96200.44860437574</v>
       </c>
       <c r="K62">
-        <v>16.79180115157223</v>
+        <v>93.85409619939094</v>
       </c>
       <c r="L62">
-        <v>0.3426898194198414</v>
+        <v>1.915389718354917</v>
       </c>
       <c r="M62" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63">
-        <v>0.6997836170333334</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E63">
-        <v>13993.16762631019</v>
+        <v>78211.7468328258</v>
       </c>
       <c r="F63">
-        <v>44204.4165315139</v>
+        <v>247070.9082448967</v>
       </c>
       <c r="G63">
-        <v>160.3214339605434</v>
+        <v>1089.399190788805</v>
       </c>
       <c r="H63">
-        <v>0.9320525821888116</v>
+        <v>4.155993855991317</v>
       </c>
       <c r="I63">
-        <v>0.2798633525262039</v>
+        <v>1.564234936656516</v>
       </c>
       <c r="J63">
-        <v>17211.59618036154</v>
+        <v>96200.44860437574</v>
       </c>
       <c r="K63">
-        <v>16.79180115157223</v>
+        <v>93.85409619939094</v>
       </c>
       <c r="L63">
-        <v>0.3426898194198414</v>
+        <v>1.915389718354917</v>
       </c>
       <c r="M63" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C64">
-        <v>0.6997836170333334</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E64">
-        <v>13993.16762631019</v>
+        <v>78211.7468328258</v>
       </c>
       <c r="F64">
-        <v>44204.4165315139</v>
+        <v>247070.9082448967</v>
       </c>
       <c r="G64">
-        <v>160.3214339605434</v>
+        <v>1089.399190788805</v>
       </c>
       <c r="H64">
-        <v>0.9320525821888116</v>
+        <v>4.155993855991317</v>
       </c>
       <c r="I64">
-        <v>0.2798633525262039</v>
+        <v>1.564234936656516</v>
       </c>
       <c r="J64">
-        <v>17211.59618036154</v>
+        <v>96200.44860437574</v>
       </c>
       <c r="K64">
-        <v>16.79180115157223</v>
+        <v>93.85409619939094</v>
       </c>
       <c r="L64">
-        <v>0.3426898194198414</v>
+        <v>1.915389718354917</v>
       </c>
       <c r="M64" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>0.6997836170333334</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E65">
         <v>13993.16762631019</v>
@@ -3585,185 +3612,185 @@
         <v>0.3426898194198414</v>
       </c>
       <c r="M65" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66">
-        <v>0.7158750894838709</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E66">
-        <v>41331.78367652622</v>
+        <v>13993.16762631019</v>
       </c>
       <c r="F66">
-        <v>130567.1046341463</v>
+        <v>44204.4165315139</v>
       </c>
       <c r="G66">
-        <v>558.6103746663845</v>
+        <v>160.3214339605434</v>
       </c>
       <c r="H66">
-        <v>5.047350007957125</v>
+        <v>0.9320525821888116</v>
       </c>
       <c r="I66">
-        <v>0.8266356735305245</v>
+        <v>0.2798633525262039</v>
       </c>
       <c r="J66">
-        <v>50838.09392212726</v>
+        <v>17211.59618036154</v>
       </c>
       <c r="K66">
-        <v>49.59814041183147</v>
+        <v>16.79180115157223</v>
       </c>
       <c r="L66">
-        <v>1.012206947180234</v>
+        <v>0.3426898194198414</v>
       </c>
       <c r="M66" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67">
-        <v>0.7517421065333333</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E67">
-        <v>112020.975968936</v>
+        <v>13993.16762631019</v>
       </c>
       <c r="F67">
-        <v>353874.2630858688</v>
+        <v>44204.4165315139</v>
       </c>
       <c r="G67">
-        <v>1589.736681983776</v>
+        <v>160.3214339605434</v>
       </c>
       <c r="H67">
-        <v>4.701170739104402</v>
+        <v>0.9320525821888116</v>
       </c>
       <c r="I67">
-        <v>2.24041951937872</v>
+        <v>0.2798633525262039</v>
       </c>
       <c r="J67">
-        <v>137785.8004417912</v>
+        <v>17211.59618036154</v>
       </c>
       <c r="K67">
-        <v>134.4251711627232</v>
+        <v>16.79180115157223</v>
       </c>
       <c r="L67">
-        <v>2.743370840055575</v>
+        <v>0.3426898194198414</v>
       </c>
       <c r="M67" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68">
-        <v>0.7517421065333333</v>
+        <v>0.6997836170333334</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E68">
-        <v>112020.975968936</v>
+        <v>13993.16762631019</v>
       </c>
       <c r="F68">
-        <v>353874.2630858688</v>
+        <v>44204.4165315139</v>
       </c>
       <c r="G68">
-        <v>1589.736681983776</v>
+        <v>160.3214339605434</v>
       </c>
       <c r="H68">
-        <v>4.701170739104402</v>
+        <v>0.9320525821888116</v>
       </c>
       <c r="I68">
-        <v>2.24041951937872</v>
+        <v>0.2798633525262039</v>
       </c>
       <c r="J68">
-        <v>137785.8004417912</v>
+        <v>17211.59618036154</v>
       </c>
       <c r="K68">
-        <v>134.4251711627232</v>
+        <v>16.79180115157223</v>
       </c>
       <c r="L68">
-        <v>2.743370840055575</v>
+        <v>0.3426898194198414</v>
       </c>
       <c r="M68" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69">
-        <v>0.7517421065333333</v>
+        <v>0.7158750894838709</v>
       </c>
       <c r="D69" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E69">
-        <v>112020.975968936</v>
+        <v>41331.78367652622</v>
       </c>
       <c r="F69">
-        <v>353874.2630858688</v>
+        <v>130567.1046341463</v>
       </c>
       <c r="G69">
-        <v>1589.736681983776</v>
+        <v>558.6103746663845</v>
       </c>
       <c r="H69">
-        <v>4.701170739104402</v>
+        <v>5.047350007957125</v>
       </c>
       <c r="I69">
-        <v>2.24041951937872</v>
+        <v>0.8266356735305245</v>
       </c>
       <c r="J69">
-        <v>137785.8004417912</v>
+        <v>50838.09392212726</v>
       </c>
       <c r="K69">
-        <v>134.4251711627232</v>
+        <v>49.59814041183147</v>
       </c>
       <c r="L69">
-        <v>2.743370840055575</v>
+        <v>1.012206947180234</v>
       </c>
       <c r="M69" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>0.7517421065333333</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E70">
         <v>112020.975968936</v>
@@ -3790,21 +3817,21 @@
         <v>2.743370840055575</v>
       </c>
       <c r="M70" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>0.7517421065333333</v>
       </c>
       <c r="D71" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E71">
         <v>112020.975968936</v>
@@ -3831,21 +3858,21 @@
         <v>2.743370840055575</v>
       </c>
       <c r="M71" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>0.7517421065333333</v>
       </c>
       <c r="D72" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E72">
         <v>112020.975968936</v>
@@ -3872,21 +3899,21 @@
         <v>2.743370840055575</v>
       </c>
       <c r="M72" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>0.7517421065333333</v>
       </c>
       <c r="D73" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E73">
         <v>112020.975968936</v>
@@ -3913,458 +3940,458 @@
         <v>2.743370840055575</v>
       </c>
       <c r="M73" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C74">
-        <v>0.5430362353333333</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E74">
-        <v>8478.207957441235</v>
+        <v>112020.975968936</v>
       </c>
       <c r="F74">
-        <v>26782.65893755686</v>
+        <v>353874.2630858688</v>
       </c>
       <c r="G74">
-        <v>109.3793654117864</v>
+        <v>1589.736681983776</v>
       </c>
       <c r="H74">
-        <v>0.5438886997694864</v>
+        <v>4.701170739104402</v>
       </c>
       <c r="I74">
-        <v>0.1695641591488247</v>
+        <v>2.24041951937872</v>
       </c>
       <c r="J74">
-        <v>10428.19578765272</v>
+        <v>137785.8004417912</v>
       </c>
       <c r="K74">
-        <v>10.17384954892948</v>
+        <v>134.4251711627232</v>
       </c>
       <c r="L74">
-        <v>0.2076295826312139</v>
+        <v>2.743370840055575</v>
       </c>
       <c r="M74" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>0.5430362353333333</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E75">
-        <v>8478.207957441235</v>
+        <v>112020.975968936</v>
       </c>
       <c r="F75">
-        <v>26782.65893755686</v>
+        <v>353874.2630858688</v>
       </c>
       <c r="G75">
-        <v>109.3793654117864</v>
+        <v>1589.736681983776</v>
       </c>
       <c r="H75">
-        <v>0.5438886997694864</v>
+        <v>4.701170739104402</v>
       </c>
       <c r="I75">
-        <v>0.1695641591488247</v>
+        <v>2.24041951937872</v>
       </c>
       <c r="J75">
-        <v>10428.19578765272</v>
+        <v>137785.8004417912</v>
       </c>
       <c r="K75">
-        <v>10.17384954892948</v>
+        <v>134.4251711627232</v>
       </c>
       <c r="L75">
-        <v>0.2076295826312139</v>
+        <v>2.743370840055575</v>
       </c>
       <c r="M75" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>0.6987738282666667</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E76">
-        <v>4753.9641625595</v>
+        <v>112020.975968936</v>
       </c>
       <c r="F76">
-        <v>15017.77278952546</v>
+        <v>353874.2630858688</v>
       </c>
       <c r="G76">
-        <v>54.61127614431255</v>
+        <v>1589.736681983776</v>
       </c>
       <c r="H76">
-        <v>1.277338857844106</v>
+        <v>4.701170739104402</v>
       </c>
       <c r="I76">
-        <v>0.09507928325119</v>
+        <v>2.24041951937872</v>
       </c>
       <c r="J76">
-        <v>5847.375919948186</v>
+        <v>137785.8004417912</v>
       </c>
       <c r="K76">
-        <v>5.704756995071401</v>
+        <v>134.4251711627232</v>
       </c>
       <c r="L76">
-        <v>0.1164236121443143</v>
+        <v>2.743370840055575</v>
       </c>
       <c r="M76" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>0.6987738282666667</v>
+        <v>0.5430362353333333</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E77">
-        <v>4753.9641625595</v>
+        <v>8478.207957441235</v>
       </c>
       <c r="F77">
-        <v>15017.77278952546</v>
+        <v>26782.65893755686</v>
       </c>
       <c r="G77">
-        <v>54.61127614431255</v>
+        <v>109.3793654117864</v>
       </c>
       <c r="H77">
-        <v>1.277338857844106</v>
+        <v>0.5438886997694864</v>
       </c>
       <c r="I77">
-        <v>0.09507928325119</v>
+        <v>0.1695641591488247</v>
       </c>
       <c r="J77">
-        <v>5847.375919948186</v>
+        <v>10428.19578765272</v>
       </c>
       <c r="K77">
-        <v>5.704756995071401</v>
+        <v>10.17384954892948</v>
       </c>
       <c r="L77">
-        <v>0.1164236121443143</v>
+        <v>0.2076295826312139</v>
       </c>
       <c r="M77" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>0.7038227721</v>
+        <v>0.5430362353333333</v>
       </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E78">
-        <v>3222.138446400574</v>
+        <v>8478.207957441235</v>
       </c>
       <c r="F78">
-        <v>10178.73535217941</v>
+        <v>26782.65893755686</v>
       </c>
       <c r="G78">
-        <v>34.67645352326583</v>
+        <v>109.3793654117864</v>
       </c>
       <c r="H78">
-        <v>0.5199646278277302</v>
+        <v>0.5438886997694864</v>
       </c>
       <c r="I78">
-        <v>0.06444276892801148</v>
+        <v>0.1695641591488247</v>
       </c>
       <c r="J78">
-        <v>3963.230289072707</v>
+        <v>10428.19578765272</v>
       </c>
       <c r="K78">
-        <v>3.86656613568069</v>
+        <v>10.17384954892948</v>
       </c>
       <c r="L78">
-        <v>0.0789095129730753</v>
+        <v>0.2076295826312139</v>
       </c>
       <c r="M78" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>0.7038227721</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E79">
-        <v>3222.138446400574</v>
+        <v>4753.9641625595</v>
       </c>
       <c r="F79">
-        <v>10178.73535217941</v>
+        <v>15017.77278952546</v>
       </c>
       <c r="G79">
-        <v>34.67645352326583</v>
+        <v>54.61127614431255</v>
       </c>
       <c r="H79">
-        <v>0.5199646278277302</v>
+        <v>1.277338857844106</v>
       </c>
       <c r="I79">
-        <v>0.06444276892801148</v>
+        <v>0.09507928325119</v>
       </c>
       <c r="J79">
-        <v>3963.230289072707</v>
+        <v>5847.375919948186</v>
       </c>
       <c r="K79">
-        <v>3.86656613568069</v>
+        <v>5.704756995071401</v>
       </c>
       <c r="L79">
-        <v>0.0789095129730753</v>
+        <v>0.1164236121443143</v>
       </c>
       <c r="M79" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C80">
-        <v>0.7119010822333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E80">
-        <v>31566.25530150378</v>
+        <v>4753.9641625595</v>
       </c>
       <c r="F80">
-        <v>99717.80049745043</v>
+        <v>15017.77278952546</v>
       </c>
       <c r="G80">
-        <v>420.0714217200809</v>
+        <v>54.61127614431255</v>
       </c>
       <c r="H80">
-        <v>3.966909705155958</v>
+        <v>1.277338857844106</v>
       </c>
       <c r="I80">
-        <v>0.6313251060300756</v>
+        <v>0.09507928325119</v>
       </c>
       <c r="J80">
-        <v>38826.49402084965</v>
+        <v>5847.375919948186</v>
       </c>
       <c r="K80">
-        <v>37.87950636180453</v>
+        <v>5.704756995071401</v>
       </c>
       <c r="L80">
-        <v>0.7730511502409088</v>
+        <v>0.1164236121443143</v>
       </c>
       <c r="M80" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81">
-        <v>0.7119010822333333</v>
+        <v>0.7038227721</v>
       </c>
       <c r="D81" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E81">
-        <v>31566.25530150378</v>
+        <v>3222.138446400574</v>
       </c>
       <c r="F81">
-        <v>99717.80049745043</v>
+        <v>10178.73535217941</v>
       </c>
       <c r="G81">
-        <v>420.0714217200809</v>
+        <v>34.67645352326583</v>
       </c>
       <c r="H81">
-        <v>3.966909705155958</v>
+        <v>0.5199646278277302</v>
       </c>
       <c r="I81">
-        <v>0.6313251060300756</v>
+        <v>0.06444276892801148</v>
       </c>
       <c r="J81">
-        <v>38826.49402084965</v>
+        <v>3963.230289072707</v>
       </c>
       <c r="K81">
-        <v>37.87950636180453</v>
+        <v>3.86656613568069</v>
       </c>
       <c r="L81">
-        <v>0.7730511502409088</v>
+        <v>0.0789095129730753</v>
       </c>
       <c r="M81" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C82">
-        <v>0.7119010822333333</v>
+        <v>0.7038227721</v>
       </c>
       <c r="D82" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E82">
-        <v>31566.25530150378</v>
+        <v>3222.138446400574</v>
       </c>
       <c r="F82">
-        <v>99717.80049745043</v>
+        <v>10178.73535217941</v>
       </c>
       <c r="G82">
-        <v>420.0714217200809</v>
+        <v>34.67645352326583</v>
       </c>
       <c r="H82">
-        <v>3.966909705155958</v>
+        <v>0.5199646278277302</v>
       </c>
       <c r="I82">
-        <v>0.6313251060300756</v>
+        <v>0.06444276892801148</v>
       </c>
       <c r="J82">
-        <v>38826.49402084965</v>
+        <v>3963.230289072707</v>
       </c>
       <c r="K82">
-        <v>37.87950636180453</v>
+        <v>3.86656613568069</v>
       </c>
       <c r="L82">
-        <v>0.7730511502409088</v>
+        <v>0.0789095129730753</v>
       </c>
       <c r="M82" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C83">
-        <v>0.5336866118666667</v>
+        <v>0.7119010822333333</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E83">
-        <v>13095.58817625343</v>
+        <v>31566.25530150378</v>
       </c>
       <c r="F83">
-        <v>41368.96304878459</v>
+        <v>99717.80049745043</v>
       </c>
       <c r="G83">
-        <v>189.781691454993</v>
+        <v>420.0714217200809</v>
       </c>
       <c r="H83">
-        <v>2.342676668190748</v>
+        <v>3.966909705155958</v>
       </c>
       <c r="I83">
-        <v>0.2619117635250686</v>
+        <v>0.6313251060300756</v>
       </c>
       <c r="J83">
-        <v>16107.57345679172</v>
+        <v>38826.49402084965</v>
       </c>
       <c r="K83">
-        <v>15.71470581150411</v>
+        <v>37.87950636180453</v>
       </c>
       <c r="L83">
-        <v>0.3207082818674309</v>
+        <v>0.7730511502409088</v>
       </c>
       <c r="M83" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84">
-        <v>0.658850372</v>
+        <v>0.7119010822333333</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E84">
-        <v>26040.84975337621</v>
+        <v>31566.25530150378</v>
       </c>
       <c r="F84">
-        <v>82263.04437091548</v>
+        <v>99717.80049745043</v>
       </c>
       <c r="G84">
-        <v>352.2223766477245</v>
+        <v>420.0714217200809</v>
       </c>
       <c r="H84">
-        <v>1.022417080573373</v>
+        <v>3.966909705155958</v>
       </c>
       <c r="I84">
-        <v>0.5208169950675242</v>
+        <v>0.6313251060300756</v>
       </c>
       <c r="J84">
-        <v>32030.24519665274</v>
+        <v>38826.49402084965</v>
       </c>
       <c r="K84">
-        <v>31.24901970405146</v>
+        <v>37.87950636180453</v>
       </c>
       <c r="L84">
-        <v>0.6377350960010502</v>
+        <v>0.7730511502409088</v>
       </c>
       <c r="M84" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4375,37 +4402,37 @@
         <v>79</v>
       </c>
       <c r="C85">
-        <v>0.5245896810666667</v>
+        <v>0.7119010822333333</v>
       </c>
       <c r="D85" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E85">
-        <v>5532.44066064992</v>
+        <v>31566.25530150378</v>
       </c>
       <c r="F85">
-        <v>17476.98004699309</v>
+        <v>99717.80049745043</v>
       </c>
       <c r="G85">
-        <v>67.61098495890778</v>
+        <v>420.0714217200809</v>
       </c>
       <c r="H85">
-        <v>0.7046019723081498</v>
+        <v>3.966909705155958</v>
       </c>
       <c r="I85">
-        <v>0.1106488132129984</v>
+        <v>0.6313251060300756</v>
       </c>
       <c r="J85">
-        <v>6804.9020125994</v>
+        <v>38826.49402084965</v>
       </c>
       <c r="K85">
-        <v>6.638928792779902</v>
+        <v>37.87950636180453</v>
       </c>
       <c r="L85">
-        <v>0.1354883427097939</v>
+        <v>0.7730511502409088</v>
       </c>
       <c r="M85" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4416,37 +4443,37 @@
         <v>80</v>
       </c>
       <c r="C86">
-        <v>0.6394995216</v>
+        <v>0.5336866118666667</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E86">
-        <v>85835.80229469133</v>
+        <v>13095.58817625343</v>
       </c>
       <c r="F86">
-        <v>271155.2994489298</v>
+        <v>41368.96304878459</v>
       </c>
       <c r="G86">
-        <v>1212.034849699766</v>
+        <v>189.781691454993</v>
       </c>
       <c r="H86">
-        <v>8.443993614047589</v>
+        <v>2.342676668190748</v>
       </c>
       <c r="I86">
-        <v>1.716716045893826</v>
+        <v>0.2619117635250686</v>
       </c>
       <c r="J86">
-        <v>105578.0368224703</v>
+        <v>16107.57345679172</v>
       </c>
       <c r="K86">
-        <v>103.0029627536296</v>
+        <v>15.71470581150411</v>
       </c>
       <c r="L86">
-        <v>2.102101280686318</v>
+        <v>0.3207082818674309</v>
       </c>
       <c r="M86" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4457,37 +4484,37 @@
         <v>81</v>
       </c>
       <c r="C87">
-        <v>0.6526378867741935</v>
+        <v>0.658850372</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E87">
-        <v>1933.250857698719</v>
+        <v>26040.84975337621</v>
       </c>
       <c r="F87">
-        <v>6107.139459470252</v>
+        <v>82263.04437091548</v>
       </c>
       <c r="G87">
-        <v>15.03590527766321</v>
+        <v>352.2223766477245</v>
       </c>
       <c r="H87">
-        <v>0.3711343158146196</v>
+        <v>1.022417080573373</v>
       </c>
       <c r="I87">
-        <v>0.03866501715397437</v>
+        <v>0.5208169950675242</v>
       </c>
       <c r="J87">
-        <v>2377.898554969424</v>
+        <v>32030.24519665274</v>
       </c>
       <c r="K87">
-        <v>2.319901029238463</v>
+        <v>31.24901970405146</v>
       </c>
       <c r="L87">
-        <v>0.04734491896405026</v>
+        <v>0.6377350960010502</v>
       </c>
       <c r="M87" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4498,242 +4525,242 @@
         <v>82</v>
       </c>
       <c r="C88">
-        <v>0.6522217394193548</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D88" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E88">
-        <v>82549.30418572211</v>
+        <v>5532.44066064992</v>
       </c>
       <c r="F88">
-        <v>260773.2519226961</v>
+        <v>17476.98004699309</v>
       </c>
       <c r="G88">
-        <v>1106.249768686155</v>
+        <v>67.61098495890778</v>
       </c>
       <c r="H88">
-        <v>9.330730501565066</v>
+        <v>0.7046019723081498</v>
       </c>
       <c r="I88">
-        <v>1.650986083714442</v>
+        <v>0.1106488132129984</v>
       </c>
       <c r="J88">
-        <v>101535.6441484382</v>
+        <v>6804.9020125994</v>
       </c>
       <c r="K88">
-        <v>99.05916502286652</v>
+        <v>6.638928792779902</v>
       </c>
       <c r="L88">
-        <v>2.021615612711562</v>
+        <v>0.1354883427097939</v>
       </c>
       <c r="M88" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C89">
-        <v>0.6522217394193548</v>
+        <v>0.6394995216</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E89">
-        <v>82549.30418572211</v>
+        <v>85835.80229469133</v>
       </c>
       <c r="F89">
-        <v>260773.2519226961</v>
+        <v>271155.2994489298</v>
       </c>
       <c r="G89">
-        <v>1106.249768686155</v>
+        <v>1212.034849699766</v>
       </c>
       <c r="H89">
-        <v>9.330730501565066</v>
+        <v>8.443993614047589</v>
       </c>
       <c r="I89">
-        <v>1.650986083714442</v>
+        <v>1.716716045893826</v>
       </c>
       <c r="J89">
-        <v>101535.6441484382</v>
+        <v>105578.0368224703</v>
       </c>
       <c r="K89">
-        <v>99.05916502286652</v>
+        <v>103.0029627536296</v>
       </c>
       <c r="L89">
-        <v>2.021615612711562</v>
+        <v>2.102101280686318</v>
       </c>
       <c r="M89" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C90">
-        <v>0.6522217394193548</v>
+        <v>0.6394995216</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E90">
-        <v>82549.30418572211</v>
+        <v>85835.80229469133</v>
       </c>
       <c r="F90">
-        <v>260773.2519226961</v>
+        <v>271155.2994489298</v>
       </c>
       <c r="G90">
-        <v>1106.249768686155</v>
+        <v>1212.034849699766</v>
       </c>
       <c r="H90">
-        <v>9.330730501565066</v>
+        <v>8.443993614047589</v>
       </c>
       <c r="I90">
-        <v>1.650986083714442</v>
+        <v>1.716716045893826</v>
       </c>
       <c r="J90">
-        <v>101535.6441484382</v>
+        <v>105578.0368224703</v>
       </c>
       <c r="K90">
-        <v>99.05916502286652</v>
+        <v>103.0029627536296</v>
       </c>
       <c r="L90">
-        <v>2.021615612711562</v>
+        <v>2.102101280686318</v>
       </c>
       <c r="M90" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C91">
-        <v>0.7170151735161291</v>
+        <v>0.6526378867741935</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91">
-        <v>7892.722245013249</v>
+        <v>1933.250857698719</v>
       </c>
       <c r="F91">
-        <v>24933.10957199685</v>
+        <v>6107.139459470252</v>
       </c>
       <c r="G91">
-        <v>83.64860050510785</v>
+        <v>15.03590527766321</v>
       </c>
       <c r="H91">
-        <v>0.7861665788517769</v>
+        <v>0.3711343158146196</v>
       </c>
       <c r="I91">
-        <v>0.157854444900265</v>
+        <v>0.03866501715397437</v>
       </c>
       <c r="J91">
-        <v>9708.048361366296</v>
+        <v>2377.898554969424</v>
       </c>
       <c r="K91">
-        <v>9.471266694015899</v>
+        <v>2.319901029238463</v>
       </c>
       <c r="L91">
-        <v>0.1932911570207326</v>
+        <v>0.04734491896405026</v>
       </c>
       <c r="M91" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92">
-        <v>0.7170151735161291</v>
+        <v>0.6522217394193548</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E92">
-        <v>7892.722245013249</v>
+        <v>82549.30418572211</v>
       </c>
       <c r="F92">
-        <v>24933.10957199685</v>
+        <v>260773.2519226961</v>
       </c>
       <c r="G92">
-        <v>83.64860050510785</v>
+        <v>1106.249768686155</v>
       </c>
       <c r="H92">
-        <v>0.7861665788517769</v>
+        <v>9.330730501565066</v>
       </c>
       <c r="I92">
-        <v>0.157854444900265</v>
+        <v>1.650986083714442</v>
       </c>
       <c r="J92">
-        <v>9708.048361366296</v>
+        <v>101535.6441484382</v>
       </c>
       <c r="K92">
-        <v>9.471266694015899</v>
+        <v>99.05916502286652</v>
       </c>
       <c r="L92">
-        <v>0.1932911570207326</v>
+        <v>2.021615612711562</v>
       </c>
       <c r="M92" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>0.6385780525666667</v>
+        <v>0.6522217394193548</v>
       </c>
       <c r="D93" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E93">
-        <v>46329.65624615233</v>
+        <v>82549.30418572211</v>
       </c>
       <c r="F93">
-        <v>146355.3840815952</v>
+        <v>260773.2519226961</v>
       </c>
       <c r="G93">
-        <v>614.0187173840868</v>
+        <v>1106.249768686155</v>
       </c>
       <c r="H93">
-        <v>8.140041238471953</v>
+        <v>9.330730501565066</v>
       </c>
       <c r="I93">
-        <v>0.9265931249230464</v>
+        <v>1.650986083714442</v>
       </c>
       <c r="J93">
-        <v>56985.47718276735</v>
+        <v>101535.6441484382</v>
       </c>
       <c r="K93">
-        <v>55.59558749538279</v>
+        <v>99.05916502286652</v>
       </c>
       <c r="L93">
-        <v>1.134603826436383</v>
+        <v>2.021615612711562</v>
       </c>
       <c r="M93" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -4744,365 +4771,365 @@
         <v>85</v>
       </c>
       <c r="C94">
-        <v>0.7078619271666666</v>
+        <v>0.6522217394193548</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E94">
-        <v>7031.745996052474</v>
+        <v>82549.30418572211</v>
       </c>
       <c r="F94">
-        <v>22213.28560152977</v>
+        <v>260773.2519226961</v>
       </c>
       <c r="G94">
-        <v>76.5106104174701</v>
+        <v>1106.249768686155</v>
       </c>
       <c r="H94">
-        <v>0.811637069816892</v>
+        <v>9.330730501565066</v>
       </c>
       <c r="I94">
-        <v>0.1406349199210495</v>
+        <v>1.650986083714442</v>
       </c>
       <c r="J94">
-        <v>8649.047575144541</v>
+        <v>101535.6441484382</v>
       </c>
       <c r="K94">
-        <v>8.438095195262967</v>
+        <v>99.05916502286652</v>
       </c>
       <c r="L94">
-        <v>0.1722060243931218</v>
+        <v>2.021615612711562</v>
       </c>
       <c r="M94" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C95">
-        <v>0.7078619271666666</v>
+        <v>0.7170151735161291</v>
       </c>
       <c r="D95" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E95">
-        <v>7031.745996052474</v>
+        <v>7892.722245013249</v>
       </c>
       <c r="F95">
-        <v>22213.28560152977</v>
+        <v>24933.10957199685</v>
       </c>
       <c r="G95">
-        <v>76.5106104174701</v>
+        <v>83.64860050510785</v>
       </c>
       <c r="H95">
-        <v>0.811637069816892</v>
+        <v>0.7861665788517769</v>
       </c>
       <c r="I95">
-        <v>0.1406349199210495</v>
+        <v>0.157854444900265</v>
       </c>
       <c r="J95">
-        <v>8649.047575144541</v>
+        <v>9708.048361366296</v>
       </c>
       <c r="K95">
-        <v>8.438095195262967</v>
+        <v>9.471266694015899</v>
       </c>
       <c r="L95">
-        <v>0.1722060243931218</v>
+        <v>0.1932911570207326</v>
       </c>
       <c r="M95" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C96">
-        <v>0.7078619271666666</v>
+        <v>0.7170151735161291</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E96">
-        <v>7031.745996052474</v>
+        <v>7892.722245013249</v>
       </c>
       <c r="F96">
-        <v>22213.28560152977</v>
+        <v>24933.10957199685</v>
       </c>
       <c r="G96">
-        <v>76.5106104174701</v>
+        <v>83.64860050510785</v>
       </c>
       <c r="H96">
-        <v>0.811637069816892</v>
+        <v>0.7861665788517769</v>
       </c>
       <c r="I96">
-        <v>0.1406349199210495</v>
+        <v>0.157854444900265</v>
       </c>
       <c r="J96">
-        <v>8649.047575144541</v>
+        <v>9708.048361366296</v>
       </c>
       <c r="K96">
-        <v>8.438095195262967</v>
+        <v>9.471266694015899</v>
       </c>
       <c r="L96">
-        <v>0.1722060243931218</v>
+        <v>0.1932911570207326</v>
       </c>
       <c r="M96" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C97">
-        <v>0.7078619271666666</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E97">
-        <v>7031.745996052474</v>
+        <v>46329.65624615233</v>
       </c>
       <c r="F97">
-        <v>22213.28560152977</v>
+        <v>146355.3840815952</v>
       </c>
       <c r="G97">
-        <v>76.5106104174701</v>
+        <v>614.0187173840868</v>
       </c>
       <c r="H97">
-        <v>0.811637069816892</v>
+        <v>8.140041238471953</v>
       </c>
       <c r="I97">
-        <v>0.1406349199210495</v>
+        <v>0.9265931249230464</v>
       </c>
       <c r="J97">
-        <v>8649.047575144541</v>
+        <v>56985.47718276735</v>
       </c>
       <c r="K97">
-        <v>8.438095195262967</v>
+        <v>55.59558749538279</v>
       </c>
       <c r="L97">
-        <v>0.1722060243931218</v>
+        <v>1.134603826436383</v>
       </c>
       <c r="M97" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C98">
-        <v>0.6431853977333334</v>
+        <v>0.7078619271666666</v>
       </c>
       <c r="D98" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E98">
-        <v>33898.67098656109</v>
+        <v>7031.745996052474</v>
       </c>
       <c r="F98">
-        <v>107085.9016465465</v>
+        <v>22213.28560152977</v>
       </c>
       <c r="G98">
-        <v>448.7250608527342</v>
+        <v>76.5106104174701</v>
       </c>
       <c r="H98">
-        <v>6.01842209561633</v>
+        <v>0.811637069816892</v>
       </c>
       <c r="I98">
-        <v>0.6779734197312218</v>
+        <v>0.1406349199210495</v>
       </c>
       <c r="J98">
-        <v>41695.36531347014</v>
+        <v>8649.047575144541</v>
       </c>
       <c r="K98">
-        <v>40.67840518387331</v>
+        <v>8.438095195262967</v>
       </c>
       <c r="L98">
-        <v>0.8301715343647613</v>
+        <v>0.1722060243931218</v>
       </c>
       <c r="M98" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C99">
-        <v>0.6431853977333334</v>
+        <v>0.7078619271666666</v>
       </c>
       <c r="D99" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E99">
-        <v>33898.67098656109</v>
+        <v>7031.745996052474</v>
       </c>
       <c r="F99">
-        <v>107085.9016465465</v>
+        <v>22213.28560152977</v>
       </c>
       <c r="G99">
-        <v>448.7250608527342</v>
+        <v>76.5106104174701</v>
       </c>
       <c r="H99">
-        <v>6.01842209561633</v>
+        <v>0.811637069816892</v>
       </c>
       <c r="I99">
-        <v>0.6779734197312218</v>
+        <v>0.1406349199210495</v>
       </c>
       <c r="J99">
-        <v>41695.36531347014</v>
+        <v>8649.047575144541</v>
       </c>
       <c r="K99">
-        <v>40.67840518387331</v>
+        <v>8.438095195262967</v>
       </c>
       <c r="L99">
-        <v>0.8301715343647613</v>
+        <v>0.1722060243931218</v>
       </c>
       <c r="M99" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C100">
-        <v>0.6431853977333334</v>
+        <v>0.7078619271666666</v>
       </c>
       <c r="D100" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E100">
-        <v>33898.67098656109</v>
+        <v>7031.745996052474</v>
       </c>
       <c r="F100">
-        <v>107085.9016465465</v>
+        <v>22213.28560152977</v>
       </c>
       <c r="G100">
-        <v>448.7250608527342</v>
+        <v>76.5106104174701</v>
       </c>
       <c r="H100">
-        <v>6.01842209561633</v>
+        <v>0.811637069816892</v>
       </c>
       <c r="I100">
-        <v>0.6779734197312218</v>
+        <v>0.1406349199210495</v>
       </c>
       <c r="J100">
-        <v>41695.36531347014</v>
+        <v>8649.047575144541</v>
       </c>
       <c r="K100">
-        <v>40.67840518387331</v>
+        <v>8.438095195262967</v>
       </c>
       <c r="L100">
-        <v>0.8301715343647613</v>
+        <v>0.1722060243931218</v>
       </c>
       <c r="M100" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C101">
-        <v>0.6078310146</v>
+        <v>0.7078619271666666</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E101">
-        <v>43947.14296766045</v>
+        <v>7031.745996052474</v>
       </c>
       <c r="F101">
-        <v>138829.0246348394</v>
+        <v>22213.28560152977</v>
       </c>
       <c r="G101">
-        <v>358.5053855312952</v>
+        <v>76.5106104174701</v>
       </c>
       <c r="H101">
-        <v>68.42647698298269</v>
+        <v>0.811637069816892</v>
       </c>
       <c r="I101">
-        <v>0.8789428593532088</v>
+        <v>0.1406349199210495</v>
       </c>
       <c r="J101">
-        <v>54054.98585022235</v>
+        <v>8649.047575144541</v>
       </c>
       <c r="K101">
-        <v>52.73657156119253</v>
+        <v>8.438095195262967</v>
       </c>
       <c r="L101">
-        <v>1.076256562473317</v>
+        <v>0.1722060243931218</v>
       </c>
       <c r="M101" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C102">
-        <v>0.7007934057999999</v>
+        <v>0.6431853977333334</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E102">
-        <v>7667.427797440894</v>
+        <v>33898.67098656109</v>
       </c>
       <c r="F102">
-        <v>24221.40441211579</v>
+        <v>107085.9016465465</v>
       </c>
       <c r="G102">
-        <v>102.3638437401876</v>
+        <v>448.7250608527342</v>
       </c>
       <c r="H102">
-        <v>0.4771434688855419</v>
+        <v>6.01842209561633</v>
       </c>
       <c r="I102">
-        <v>0.1533485559488179</v>
+        <v>0.6779734197312218</v>
       </c>
       <c r="J102">
-        <v>9430.936190852299</v>
+        <v>41695.36531347014</v>
       </c>
       <c r="K102">
-        <v>9.200913356929071</v>
+        <v>40.67840518387331</v>
       </c>
       <c r="L102">
-        <v>0.1877737419781443</v>
+        <v>0.8301715343647613</v>
       </c>
       <c r="M102" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5113,78 +5140,78 @@
         <v>89</v>
       </c>
       <c r="C103">
-        <v>0.7038227721</v>
+        <v>0.6431853977333334</v>
       </c>
       <c r="D103" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E103">
-        <v>6101.016259733158</v>
+        <v>33898.67098656109</v>
       </c>
       <c r="F103">
-        <v>19273.11036449704</v>
+        <v>107085.9016465465</v>
       </c>
       <c r="G103">
-        <v>62.13806792710293</v>
+        <v>448.7250608527342</v>
       </c>
       <c r="H103">
-        <v>0.2549851932676656</v>
+        <v>6.01842209561633</v>
       </c>
       <c r="I103">
-        <v>0.1220203251946632</v>
+        <v>0.6779734197312218</v>
       </c>
       <c r="J103">
-        <v>7504.249999471785</v>
+        <v>41695.36531347014</v>
       </c>
       <c r="K103">
-        <v>7.321219511679789</v>
+        <v>40.67840518387331</v>
       </c>
       <c r="L103">
-        <v>0.1494126430955059</v>
+        <v>0.8301715343647613</v>
       </c>
       <c r="M103" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104">
-        <v>0.7190673247741936</v>
+        <v>0.6431853977333334</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E104">
-        <v>51198.99361919194</v>
+        <v>33898.67098656109</v>
       </c>
       <c r="F104">
-        <v>161737.6208430273</v>
+        <v>107085.9016465465</v>
       </c>
       <c r="G104">
-        <v>438.109814535165</v>
+        <v>448.7250608527342</v>
       </c>
       <c r="H104">
-        <v>76.16236322150311</v>
+        <v>6.01842209561633</v>
       </c>
       <c r="I104">
-        <v>1.023979872383838</v>
+        <v>0.6779734197312218</v>
       </c>
       <c r="J104">
-        <v>62974.76215160608</v>
+        <v>41695.36531347014</v>
       </c>
       <c r="K104">
-        <v>61.43879234303031</v>
+        <v>40.67840518387331</v>
       </c>
       <c r="L104">
-        <v>1.253852904959802</v>
+        <v>0.8301715343647613</v>
       </c>
       <c r="M104" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5195,37 +5222,37 @@
         <v>90</v>
       </c>
       <c r="C105">
-        <v>0.7190673247741936</v>
+        <v>0.6078310146</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E105">
-        <v>51198.99361919194</v>
+        <v>43947.14296766045</v>
       </c>
       <c r="F105">
-        <v>161737.6208430273</v>
+        <v>138829.0246348394</v>
       </c>
       <c r="G105">
-        <v>438.109814535165</v>
+        <v>358.5053855312952</v>
       </c>
       <c r="H105">
-        <v>76.16236322150311</v>
+        <v>68.42647698298269</v>
       </c>
       <c r="I105">
-        <v>1.023979872383838</v>
+        <v>0.8789428593532088</v>
       </c>
       <c r="J105">
-        <v>62974.76215160608</v>
+        <v>54054.98585022235</v>
       </c>
       <c r="K105">
-        <v>61.43879234303031</v>
+        <v>52.73657156119253</v>
       </c>
       <c r="L105">
-        <v>1.253852904959802</v>
+        <v>1.076256562473317</v>
       </c>
       <c r="M105" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5236,37 +5263,37 @@
         <v>91</v>
       </c>
       <c r="C106">
-        <v>0.5435416204</v>
+        <v>0.7007934057999999</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E106">
-        <v>20795.15991131873</v>
+        <v>7667.427797440894</v>
       </c>
       <c r="F106">
-        <v>65691.91015985586</v>
+        <v>24221.40441211579</v>
       </c>
       <c r="G106">
-        <v>285.1547223858357</v>
+        <v>102.3638437401876</v>
       </c>
       <c r="H106">
-        <v>1.5379194538156</v>
+        <v>0.4771434688855419</v>
       </c>
       <c r="I106">
-        <v>0.4159031982263744</v>
+        <v>0.1533485559488179</v>
       </c>
       <c r="J106">
-        <v>25578.04669092203</v>
+        <v>9430.936190852299</v>
       </c>
       <c r="K106">
-        <v>24.95419189358246</v>
+        <v>9.200913356929071</v>
       </c>
       <c r="L106">
-        <v>0.5092692223180096</v>
+        <v>0.1877737419781443</v>
       </c>
       <c r="M106" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5277,37 +5304,37 @@
         <v>92</v>
       </c>
       <c r="C107">
-        <v>0.6987738282666667</v>
+        <v>0.7038227721</v>
       </c>
       <c r="D107" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E107">
-        <v>18100.7417540956</v>
+        <v>6101.016259733158</v>
       </c>
       <c r="F107">
-        <v>57180.243201188</v>
+        <v>19273.11036449704</v>
       </c>
       <c r="G107">
-        <v>248.3188291565152</v>
+        <v>62.13806792710293</v>
       </c>
       <c r="H107">
-        <v>2.862837865788422</v>
+        <v>0.2549851932676656</v>
       </c>
       <c r="I107">
-        <v>0.362014835081912</v>
+        <v>0.1220203251946632</v>
       </c>
       <c r="J107">
-        <v>22263.91235753759</v>
+        <v>7504.249999471785</v>
       </c>
       <c r="K107">
-        <v>21.72089010491472</v>
+        <v>7.321219511679789</v>
       </c>
       <c r="L107">
-        <v>0.4432834715288719</v>
+        <v>0.1494126430955059</v>
       </c>
       <c r="M107" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5318,78 +5345,78 @@
         <v>93</v>
       </c>
       <c r="C108">
-        <v>0.6385780525666667</v>
+        <v>0.7190673247741936</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="E108">
-        <v>1676.864680759501</v>
+        <v>51198.99361919194</v>
       </c>
       <c r="F108">
-        <v>5297.215526519264</v>
+        <v>161737.6208430273</v>
       </c>
       <c r="G108">
-        <v>22.16017715166791</v>
+        <v>438.109814535165</v>
       </c>
       <c r="H108">
-        <v>0.4423703837442485</v>
+        <v>76.16236322150311</v>
       </c>
       <c r="I108">
-        <v>0.03353729361519002</v>
+        <v>1.023979872383838</v>
       </c>
       <c r="J108">
-        <v>2062.543557334187</v>
+        <v>62974.76215160608</v>
       </c>
       <c r="K108">
-        <v>2.012237616911401</v>
+        <v>61.43879234303031</v>
       </c>
       <c r="L108">
-        <v>0.04106607381451839</v>
+        <v>1.253852904959802</v>
       </c>
       <c r="M108" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109">
-        <v>0.6987738282666667</v>
+        <v>0.7190673247741936</v>
       </c>
       <c r="D109" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E109">
-        <v>35222.7382760496</v>
+        <v>51198.99361919194</v>
       </c>
       <c r="F109">
-        <v>111268.6302140407</v>
+        <v>161737.6208430273</v>
       </c>
       <c r="G109">
-        <v>489.558111655775</v>
+        <v>438.109814535165</v>
       </c>
       <c r="H109">
-        <v>4.629562235328873</v>
+        <v>76.16236322150311</v>
       </c>
       <c r="I109">
-        <v>0.7044547655209921</v>
+        <v>1.023979872383838</v>
       </c>
       <c r="J109">
-        <v>43323.96807954101</v>
+        <v>62974.76215160608</v>
       </c>
       <c r="K109">
-        <v>42.26728593125952</v>
+        <v>61.43879234303031</v>
       </c>
       <c r="L109">
-        <v>0.8625976720665208</v>
+        <v>1.253852904959802</v>
       </c>
       <c r="M109" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5400,37 +5427,37 @@
         <v>94</v>
       </c>
       <c r="C110">
-        <v>0.6987738282666667</v>
+        <v>0.5372569126774194</v>
       </c>
       <c r="D110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E110">
-        <v>35222.7382760496</v>
+        <v>3808.605693427</v>
       </c>
       <c r="F110">
-        <v>111268.6302140407</v>
+        <v>12031.38538553589</v>
       </c>
       <c r="G110">
-        <v>489.558111655775</v>
+        <v>41.50280119574938</v>
       </c>
       <c r="H110">
-        <v>4.629562235328873</v>
+        <v>28.79616705418669</v>
       </c>
       <c r="I110">
-        <v>0.7044547655209921</v>
+        <v>0.07617211386854</v>
       </c>
       <c r="J110">
-        <v>43323.96807954101</v>
+        <v>4684.58500291521</v>
       </c>
       <c r="K110">
-        <v>42.26728593125952</v>
+        <v>4.5703268321124</v>
       </c>
       <c r="L110">
-        <v>0.8625976720665208</v>
+        <v>0.09327197616555917</v>
       </c>
       <c r="M110" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -5441,37 +5468,37 @@
         <v>95</v>
       </c>
       <c r="C111">
-        <v>0.7145069886451613</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="E111">
-        <v>6595.359410518415</v>
+        <v>18100.7417540956</v>
       </c>
       <c r="F111">
-        <v>20834.74037782767</v>
+        <v>57180.243201188</v>
       </c>
       <c r="G111">
-        <v>73.64016154352225</v>
+        <v>248.3188291565152</v>
       </c>
       <c r="H111">
-        <v>0.6909445732272366</v>
+        <v>2.862837865788422</v>
       </c>
       <c r="I111">
-        <v>0.1319071882103683</v>
+        <v>0.362014835081912</v>
       </c>
       <c r="J111">
-        <v>8112.29207493765</v>
+        <v>22263.91235753759</v>
       </c>
       <c r="K111">
-        <v>7.914431292622096</v>
+        <v>21.72089010491472</v>
       </c>
       <c r="L111">
-        <v>0.1615190059718795</v>
+        <v>0.4432834715288719</v>
       </c>
       <c r="M111" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -5482,37 +5509,37 @@
         <v>96</v>
       </c>
       <c r="C112">
-        <v>0.6376565835333333</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D112" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E112">
-        <v>64477.39953374461</v>
+        <v>1676.864680759501</v>
       </c>
       <c r="F112">
-        <v>203684.1051270992</v>
+        <v>5297.215526519264</v>
       </c>
       <c r="G112">
-        <v>859.3468780886792</v>
+        <v>22.16017715166791</v>
       </c>
       <c r="H112">
-        <v>10.2260976154482</v>
+        <v>0.4423703837442485</v>
       </c>
       <c r="I112">
-        <v>1.289547990674892</v>
+        <v>0.03353729361519002</v>
       </c>
       <c r="J112">
-        <v>79307.20142650587</v>
+        <v>2062.543557334187</v>
       </c>
       <c r="K112">
-        <v>77.37287944049353</v>
+        <v>2.012237616911401</v>
       </c>
       <c r="L112">
-        <v>1.579038355928439</v>
+        <v>0.04106607381451839</v>
       </c>
       <c r="M112" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -5523,37 +5550,37 @@
         <v>97</v>
       </c>
       <c r="C113">
-        <v>0.6376565835333333</v>
+        <v>0.65055715</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E113">
-        <v>6301.168115037548</v>
+        <v>7924.513368188607</v>
       </c>
       <c r="F113">
-        <v>19905.39007540361</v>
+        <v>25033.5377301078</v>
       </c>
       <c r="G113">
-        <v>70.09313817241372</v>
+        <v>116.7515540297914</v>
       </c>
       <c r="H113">
-        <v>0.8418556456115694</v>
+        <v>1.401425030795094</v>
       </c>
       <c r="I113">
-        <v>0.126023362300751</v>
+        <v>0.1584902673637721</v>
       </c>
       <c r="J113">
-        <v>7750.436781496183</v>
+        <v>9747.151442871986</v>
       </c>
       <c r="K113">
-        <v>7.561401738045056</v>
+        <v>9.509416041826327</v>
       </c>
       <c r="L113">
-        <v>0.154314321184593</v>
+        <v>0.1940697151393128</v>
       </c>
       <c r="M113" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -5561,40 +5588,40 @@
         <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C114">
-        <v>0.7873938323333334</v>
+        <v>0.7088717159333333</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E114">
-        <v>51439.38185212751</v>
+        <v>7632.447317737308</v>
       </c>
       <c r="F114">
-        <v>162497.0072708708</v>
+        <v>24110.90107673216</v>
       </c>
       <c r="G114">
-        <v>828.95837862268</v>
+        <v>80.18416351517652</v>
       </c>
       <c r="H114">
-        <v>2.366305916426985</v>
+        <v>0.9487994128325645</v>
       </c>
       <c r="I114">
-        <v>1.02878763704255</v>
+        <v>0.1526489463547462</v>
       </c>
       <c r="J114">
-        <v>63270.43967811684</v>
+        <v>9387.91020081689</v>
       </c>
       <c r="K114">
-        <v>61.72725822255301</v>
+        <v>9.158936781284769</v>
       </c>
       <c r="L114">
-        <v>1.259739963725572</v>
+        <v>0.186917077169077</v>
       </c>
       <c r="M114" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5602,204 +5629,204 @@
         <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C115">
-        <v>0.6376565835333333</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="E115">
-        <v>2316.443574713053</v>
+        <v>35222.7382760496</v>
       </c>
       <c r="F115">
-        <v>7317.645252518533</v>
+        <v>111268.6302140407</v>
       </c>
       <c r="G115">
-        <v>27.34101535439815</v>
+        <v>489.558111655775</v>
       </c>
       <c r="H115">
-        <v>0.3358781940405836</v>
+        <v>4.629562235328873</v>
       </c>
       <c r="I115">
-        <v>0.04632887149426105</v>
+        <v>0.7044547655209921</v>
       </c>
       <c r="J115">
-        <v>2849.225596897055</v>
+        <v>43323.96807954101</v>
       </c>
       <c r="K115">
-        <v>2.779732289655663</v>
+        <v>42.26728593125952</v>
       </c>
       <c r="L115">
-        <v>0.05672923040113598</v>
+        <v>0.8625976720665208</v>
       </c>
       <c r="M115" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C116">
-        <v>0.6203187580967742</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E116">
-        <v>13039.98641116423</v>
+        <v>35222.7382760496</v>
       </c>
       <c r="F116">
-        <v>41193.31707286781</v>
+        <v>111268.6302140407</v>
       </c>
       <c r="G116">
-        <v>135.6783014660418</v>
+        <v>489.558111655775</v>
       </c>
       <c r="H116">
-        <v>1.244011533931747</v>
+        <v>4.629562235328873</v>
       </c>
       <c r="I116">
-        <v>0.2607997282232846</v>
+        <v>0.7044547655209921</v>
       </c>
       <c r="J116">
-        <v>16039.18328573201</v>
+        <v>43323.96807954101</v>
       </c>
       <c r="K116">
-        <v>15.64798369339708</v>
+        <v>42.26728593125952</v>
       </c>
       <c r="L116">
-        <v>0.3193466059876955</v>
+        <v>0.8625976720665208</v>
       </c>
       <c r="M116" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C117">
-        <v>0.6185388307096774</v>
+        <v>0.7145069886451613</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E117">
-        <v>9948.14886224542</v>
+        <v>6595.359410518415</v>
       </c>
       <c r="F117">
-        <v>31426.20225583328</v>
+        <v>20834.74037782767</v>
       </c>
       <c r="G117">
-        <v>108.3939559544523</v>
+        <v>73.64016154352225</v>
       </c>
       <c r="H117">
-        <v>0.8296983483800563</v>
+        <v>0.6909445732272366</v>
       </c>
       <c r="I117">
-        <v>0.1989629772449084</v>
+        <v>0.1319071882103683</v>
       </c>
       <c r="J117">
-        <v>12236.22310056187</v>
+        <v>8112.29207493765</v>
       </c>
       <c r="K117">
-        <v>11.9377786346945</v>
+        <v>7.914431292622096</v>
       </c>
       <c r="L117">
-        <v>0.2436281354019286</v>
+        <v>0.1615190059718795</v>
       </c>
       <c r="M117" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C118">
-        <v>0.6259316506666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D118" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E118">
-        <v>4831.93347804839</v>
+        <v>64477.39953374461</v>
       </c>
       <c r="F118">
-        <v>15264.07785715487</v>
+        <v>203684.1051270992</v>
       </c>
       <c r="G118">
-        <v>48.11396090194742</v>
+        <v>859.3468780886792</v>
       </c>
       <c r="H118">
-        <v>0.1838953949531242</v>
+        <v>10.2260976154482</v>
       </c>
       <c r="I118">
-        <v>0.09663866956096778</v>
+        <v>1.289547990674892</v>
       </c>
       <c r="J118">
-        <v>5943.27817799952</v>
+        <v>79307.20142650587</v>
       </c>
       <c r="K118">
-        <v>5.798320173658068</v>
+        <v>77.37287944049353</v>
       </c>
       <c r="L118">
-        <v>0.118333064768532</v>
+        <v>1.579038355928439</v>
       </c>
       <c r="M118" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C119">
-        <v>0.6060793402</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E119">
-        <v>15857.49067882458</v>
+        <v>6301.168115037548</v>
       </c>
       <c r="F119">
-        <v>50093.81305440686</v>
+        <v>19905.39007540361</v>
       </c>
       <c r="G119">
-        <v>325.2184627122084</v>
+        <v>70.09313817241372</v>
       </c>
       <c r="H119">
-        <v>0.6836420587710719</v>
+        <v>0.8418556456115694</v>
       </c>
       <c r="I119">
-        <v>0.3171498135764916</v>
+        <v>0.126023362300751</v>
       </c>
       <c r="J119">
-        <v>19504.71353495423</v>
+        <v>7750.436781496183</v>
       </c>
       <c r="K119">
-        <v>19.0289888145895</v>
+        <v>7.561401738045056</v>
       </c>
       <c r="L119">
-        <v>0.3883467105018264</v>
+        <v>0.154314321184593</v>
       </c>
       <c r="M119" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -5807,1393 +5834,1393 @@
         <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C120">
-        <v>0.5245896810666667</v>
+        <v>0.7873938323333334</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E120">
-        <v>1506.959005265254</v>
+        <v>51439.38185212751</v>
       </c>
       <c r="F120">
-        <v>4760.483497632938</v>
+        <v>162497.0072708708</v>
       </c>
       <c r="G120">
-        <v>25.21306938787783</v>
+        <v>828.95837862268</v>
       </c>
       <c r="H120">
-        <v>0.0743631827653808</v>
+        <v>2.366305916426985</v>
       </c>
       <c r="I120">
-        <v>0.03013918010530508</v>
+        <v>1.02878763704255</v>
       </c>
       <c r="J120">
-        <v>1853.559576476263</v>
+        <v>63270.43967811684</v>
       </c>
       <c r="K120">
-        <v>1.808350806318305</v>
+        <v>61.72725822255301</v>
       </c>
       <c r="L120">
-        <v>0.03690511849629195</v>
+        <v>1.259739963725572</v>
       </c>
       <c r="M120" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C121">
-        <v>0.6987738282666667</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D121" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E121">
-        <v>4145.531808809877</v>
+        <v>2316.443574713053</v>
       </c>
       <c r="F121">
-        <v>13095.7349840304</v>
+        <v>7317.645252518533</v>
       </c>
       <c r="G121">
-        <v>77.42447304919942</v>
+        <v>27.34101535439815</v>
       </c>
       <c r="H121">
-        <v>0.3693596390676142</v>
+        <v>0.3358781940405836</v>
       </c>
       <c r="I121">
-        <v>0.08291063617619751</v>
+        <v>0.04632887149426105</v>
       </c>
       <c r="J121">
-        <v>5099.004124836147</v>
+        <v>2849.225596897055</v>
       </c>
       <c r="K121">
-        <v>4.974638170571851</v>
+        <v>2.779732289655663</v>
       </c>
       <c r="L121">
-        <v>0.1015232279708541</v>
+        <v>0.05672923040113598</v>
       </c>
       <c r="M121" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C122">
-        <v>0.6987738282666667</v>
+        <v>0.7796246411333333</v>
       </c>
       <c r="D122" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E122">
-        <v>1144.880059257864</v>
+        <v>5265.854309861729</v>
       </c>
       <c r="F122">
-        <v>3616.676107195593</v>
+        <v>16634.8337648532</v>
       </c>
       <c r="G122">
-        <v>14.57380312473029</v>
+        <v>37.91852536270888</v>
       </c>
       <c r="H122">
-        <v>0.7777584462408016</v>
+        <v>0.8265518630062336</v>
       </c>
       <c r="I122">
-        <v>0.02289760118515729</v>
+        <v>0.1053170861972346</v>
       </c>
       <c r="J122">
-        <v>1408.202472887173</v>
+        <v>6477.000801129927</v>
       </c>
       <c r="K122">
-        <v>1.373856071109437</v>
+        <v>6.319025171834075</v>
       </c>
       <c r="L122">
-        <v>0.02803787900223341</v>
+        <v>0.1289596973843689</v>
       </c>
       <c r="M122" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="C123">
-        <v>0.6404209906333334</v>
+        <v>0.6203187580967742</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E123">
-        <v>3500.334021637549</v>
+        <v>13039.98641116423</v>
       </c>
       <c r="F123">
-        <v>11057.55517435302</v>
+        <v>41193.31707286781</v>
       </c>
       <c r="G123">
-        <v>45.85643632600504</v>
+        <v>135.6783014660418</v>
       </c>
       <c r="H123">
-        <v>0.2061520494810317</v>
+        <v>1.244011533931747</v>
       </c>
       <c r="I123">
-        <v>0.07000668043275098</v>
+        <v>0.2607997282232846</v>
       </c>
       <c r="J123">
-        <v>4305.410846614186</v>
+        <v>16039.18328573201</v>
       </c>
       <c r="K123">
-        <v>4.200400825965058</v>
+        <v>15.64798369339708</v>
       </c>
       <c r="L123">
-        <v>0.08572246583602161</v>
+        <v>0.3193466059876955</v>
       </c>
       <c r="M123" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C124">
-        <v>0.7078619271666666</v>
+        <v>0.6185388307096774</v>
       </c>
       <c r="D124" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E124">
-        <v>743.4697632605178</v>
+        <v>9948.14886224542</v>
       </c>
       <c r="F124">
-        <v>2348.620982139976</v>
+        <v>31426.20225583328</v>
       </c>
       <c r="G124">
-        <v>11.04180417764733</v>
+        <v>108.3939559544523</v>
       </c>
       <c r="H124">
-        <v>0.1532812930385515</v>
+        <v>0.8296983483800563</v>
       </c>
       <c r="I124">
-        <v>0.01486939526521035</v>
+        <v>0.1989629772449084</v>
       </c>
       <c r="J124">
-        <v>914.4678088104365</v>
+        <v>12236.22310056187</v>
       </c>
       <c r="K124">
-        <v>0.8921637159126211</v>
+        <v>11.9377786346945</v>
       </c>
       <c r="L124">
-        <v>0.01820742277372695</v>
+        <v>0.2436281354019286</v>
       </c>
       <c r="M124" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C125">
-        <v>0.7028129833333333</v>
+        <v>0.6195276792580645</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E125">
-        <v>917.0421374503012</v>
+        <v>8702.074672881419</v>
       </c>
       <c r="F125">
-        <v>2896.936112205501</v>
+        <v>27489.8538916324</v>
       </c>
       <c r="G125">
-        <v>13.88401796099756</v>
+        <v>84.7918960864484</v>
       </c>
       <c r="H125">
-        <v>0.4768619114741565</v>
+        <v>0.7091765847409974</v>
       </c>
       <c r="I125">
-        <v>0.01834084274900602</v>
+        <v>0.1740414934576283</v>
       </c>
       <c r="J125">
-        <v>1127.961829063871</v>
+        <v>10703.55184764414</v>
       </c>
       <c r="K125">
-        <v>1.100450564940361</v>
+        <v>10.4424896074577</v>
       </c>
       <c r="L125">
-        <v>0.02245817479470125</v>
+        <v>0.2131120328052592</v>
       </c>
       <c r="M125" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C126">
-        <v>0.7088717159333333</v>
+        <v>0.6259316506666667</v>
       </c>
       <c r="D126" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E126">
-        <v>130.2398200270152</v>
+        <v>4831.93347804839</v>
       </c>
       <c r="F126">
-        <v>411.427591465341</v>
+        <v>15264.07785715487</v>
       </c>
       <c r="G126">
-        <v>1.97183087520901</v>
+        <v>48.11396090194742</v>
       </c>
       <c r="H126">
-        <v>0.06772470641404792</v>
+        <v>0.1838953949531242</v>
       </c>
       <c r="I126">
-        <v>0.002604796400540304</v>
+        <v>0.09663866956096778</v>
       </c>
       <c r="J126">
-        <v>160.1949786332287</v>
+        <v>5943.27817799952</v>
       </c>
       <c r="K126">
-        <v>0.1562877840324182</v>
+        <v>5.798320173658068</v>
       </c>
       <c r="L126">
-        <v>0.003189546612906494</v>
+        <v>0.118333064768532</v>
       </c>
       <c r="M126" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B127" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C127">
-        <v>0.7517421065333333</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D127" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E127">
-        <v>112020.975968936</v>
+        <v>15857.49067882458</v>
       </c>
       <c r="F127">
-        <v>353874.2630858688</v>
+        <v>50093.81305440686</v>
       </c>
       <c r="G127">
-        <v>1589.736681983776</v>
+        <v>325.2184627122084</v>
       </c>
       <c r="H127">
-        <v>4.701170739104402</v>
+        <v>0.6836420587710719</v>
       </c>
       <c r="I127">
-        <v>2.24041951937872</v>
+        <v>0.3171498135764916</v>
       </c>
       <c r="J127">
-        <v>137785.8004417912</v>
+        <v>19504.71353495423</v>
       </c>
       <c r="K127">
-        <v>134.4251711627232</v>
+        <v>19.0289888145895</v>
       </c>
       <c r="L127">
-        <v>2.743370840055575</v>
+        <v>0.3883467105018264</v>
       </c>
       <c r="M127" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="C128">
-        <v>0.6376565835333333</v>
+        <v>0.6207142975161291</v>
       </c>
       <c r="D128" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E128">
-        <v>96862.29686043136</v>
+        <v>1767.7856160818</v>
       </c>
       <c r="F128">
-        <v>305987.9957821026</v>
+        <v>5584.434761202405</v>
       </c>
       <c r="G128">
-        <v>1315.004558087266</v>
+        <v>18.72400575600906</v>
       </c>
       <c r="H128">
-        <v>10.00393184237167</v>
+        <v>0.4077957205482527</v>
       </c>
       <c r="I128">
-        <v>1.937245937208627</v>
+        <v>0.035355712321636</v>
       </c>
       <c r="J128">
-        <v>119140.6251383306</v>
+        <v>2174.376307780614</v>
       </c>
       <c r="K128">
-        <v>116.2347562325176</v>
+        <v>2.121342739298159</v>
       </c>
       <c r="L128">
-        <v>2.372137882296278</v>
+        <v>0.04329270896526857</v>
       </c>
       <c r="M128" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C129">
-        <v>0.6987738282666667</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D129" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E129">
-        <v>4753.9641625595</v>
+        <v>1506.959005265254</v>
       </c>
       <c r="F129">
-        <v>15017.77278952546</v>
+        <v>4760.483497632938</v>
       </c>
       <c r="G129">
-        <v>54.61127614431255</v>
+        <v>25.21306938787783</v>
       </c>
       <c r="H129">
-        <v>1.277338857844106</v>
+        <v>0.0743631827653808</v>
       </c>
       <c r="I129">
-        <v>0.09507928325119</v>
+        <v>0.03013918010530508</v>
       </c>
       <c r="J129">
-        <v>5847.375919948186</v>
+        <v>1853.559576476263</v>
       </c>
       <c r="K129">
-        <v>5.704756995071401</v>
+        <v>1.808350806318305</v>
       </c>
       <c r="L129">
-        <v>0.1164236121443143</v>
+        <v>0.03690511849629195</v>
       </c>
       <c r="M129" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C130">
-        <v>0.6078310146</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D130" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E130">
-        <v>43947.14296766045</v>
+        <v>4145.531808809877</v>
       </c>
       <c r="F130">
-        <v>138829.0246348394</v>
+        <v>13095.7349840304</v>
       </c>
       <c r="G130">
-        <v>358.5053855312952</v>
+        <v>77.42447304919942</v>
       </c>
       <c r="H130">
-        <v>68.42647698298269</v>
+        <v>0.3693596390676142</v>
       </c>
       <c r="I130">
-        <v>0.8789428593532088</v>
+        <v>0.08291063617619751</v>
       </c>
       <c r="J130">
-        <v>54054.98585022235</v>
+        <v>5099.004124836147</v>
       </c>
       <c r="K130">
-        <v>52.73657156119253</v>
+        <v>4.974638170571851</v>
       </c>
       <c r="L130">
-        <v>1.076256562473317</v>
+        <v>0.1015232279708541</v>
       </c>
       <c r="M130" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C131">
-        <v>0.6078310146</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D131" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E131">
-        <v>43947.14296766045</v>
+        <v>1144.880059257864</v>
       </c>
       <c r="F131">
-        <v>138829.0246348394</v>
+        <v>3616.676107195593</v>
       </c>
       <c r="G131">
-        <v>358.5053855312952</v>
+        <v>14.57380312473029</v>
       </c>
       <c r="H131">
-        <v>68.42647698298269</v>
+        <v>0.7777584462408016</v>
       </c>
       <c r="I131">
-        <v>0.8789428593532088</v>
+        <v>0.02289760118515729</v>
       </c>
       <c r="J131">
-        <v>54054.98585022235</v>
+        <v>1408.202472887173</v>
       </c>
       <c r="K131">
-        <v>52.73657156119253</v>
+        <v>1.373856071109437</v>
       </c>
       <c r="L131">
-        <v>1.076256562473317</v>
+        <v>0.02803787900223341</v>
       </c>
       <c r="M131" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B132" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C132">
-        <v>0.5435416204</v>
+        <v>0.6404209906333334</v>
       </c>
       <c r="D132" t="s">
         <v>165</v>
       </c>
       <c r="E132">
-        <v>4599.999158670345</v>
+        <v>3500.334021637549</v>
       </c>
       <c r="F132">
-        <v>14531.39734223962</v>
+        <v>11057.55517435302</v>
       </c>
       <c r="G132">
-        <v>49.0051621884025</v>
+        <v>45.85643632600504</v>
       </c>
       <c r="H132">
-        <v>2.267673656723539</v>
+        <v>0.2061520494810317</v>
       </c>
       <c r="I132">
-        <v>0.09199998317340689</v>
+        <v>0.07000668043275098</v>
       </c>
       <c r="J132">
-        <v>5657.998965164525</v>
+        <v>4305.410846614186</v>
       </c>
       <c r="K132">
-        <v>5.519998990404414</v>
+        <v>4.200400825965058</v>
       </c>
       <c r="L132">
-        <v>0.1126530406204982</v>
+        <v>0.08572246583602161</v>
       </c>
       <c r="M132" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C133">
-        <v>0.7167871567096774</v>
+        <v>0.7028129833333333</v>
       </c>
       <c r="D133" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="E133">
-        <v>1168.330076640892</v>
+        <v>917.0421374503012</v>
       </c>
       <c r="F133">
-        <v>3690.754712108579</v>
+        <v>2896.936112205501</v>
       </c>
       <c r="G133">
-        <v>7.455723391322747</v>
+        <v>13.88401796099756</v>
       </c>
       <c r="H133">
-        <v>6.078604707497345</v>
+        <v>0.4768619114741565</v>
       </c>
       <c r="I133">
-        <v>0.02336660153281785</v>
+        <v>0.01834084274900602</v>
       </c>
       <c r="J133">
-        <v>1437.045994268298</v>
+        <v>1127.961829063871</v>
       </c>
       <c r="K133">
-        <v>1.401996091969071</v>
+        <v>1.100450564940361</v>
       </c>
       <c r="L133">
-        <v>0.02861216514222593</v>
+        <v>0.02245817479470125</v>
       </c>
       <c r="M133" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C134">
         <v>0.6987738282666667</v>
       </c>
       <c r="D134" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E134">
-        <v>35222.7382760496</v>
+        <v>956.5921200100648</v>
       </c>
       <c r="F134">
-        <v>111268.6302140407</v>
+        <v>3021.874507111795</v>
       </c>
       <c r="G134">
-        <v>489.558111655775</v>
+        <v>10.02693166950362</v>
       </c>
       <c r="H134">
-        <v>4.629562235328873</v>
+        <v>0.3614252915066805</v>
       </c>
       <c r="I134">
-        <v>0.7044547655209921</v>
+        <v>0.0191318424002013</v>
       </c>
       <c r="J134">
-        <v>43323.96807954101</v>
+        <v>1176.60830761238</v>
       </c>
       <c r="K134">
-        <v>42.26728593125952</v>
+        <v>1.147910544012078</v>
       </c>
       <c r="L134">
-        <v>0.8625976720665208</v>
+        <v>0.02342674579616485</v>
       </c>
       <c r="M134" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C135">
-        <v>0.7088717159333333</v>
+        <v>0.7517421065333333</v>
       </c>
       <c r="D135" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E135">
-        <v>7632.447317737308</v>
+        <v>112020.975968936</v>
       </c>
       <c r="F135">
-        <v>24110.90107673216</v>
+        <v>353874.2630858688</v>
       </c>
       <c r="G135">
-        <v>80.18416351517652</v>
+        <v>1589.736681983776</v>
       </c>
       <c r="H135">
-        <v>0.9487994128325645</v>
+        <v>4.701170739104402</v>
       </c>
       <c r="I135">
-        <v>0.1526489463547462</v>
+        <v>2.24041951937872</v>
       </c>
       <c r="J135">
-        <v>9387.91020081689</v>
+        <v>137785.8004417912</v>
       </c>
       <c r="K135">
-        <v>9.158936781284769</v>
+        <v>134.4251711627232</v>
       </c>
       <c r="L135">
-        <v>0.186917077169077</v>
+        <v>2.743370840055575</v>
       </c>
       <c r="M135" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C136">
-        <v>0.6404209906333334</v>
+        <v>0.6376565835333333</v>
       </c>
       <c r="D136" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E136">
-        <v>32013.62419526062</v>
+        <v>96862.29686043136</v>
       </c>
       <c r="F136">
-        <v>101131.0388328283</v>
+        <v>305987.9957821026</v>
       </c>
       <c r="G136">
-        <v>420.8527224385067</v>
+        <v>1315.004558087266</v>
       </c>
       <c r="H136">
-        <v>6.827663388548187</v>
+        <v>10.00393184237167</v>
       </c>
       <c r="I136">
-        <v>0.6402724839052123</v>
+        <v>1.937245937208627</v>
       </c>
       <c r="J136">
-        <v>39376.75776017056</v>
+        <v>119140.6251383306</v>
       </c>
       <c r="K136">
-        <v>38.41634903431274</v>
+        <v>116.2347562325176</v>
       </c>
       <c r="L136">
-        <v>0.7840071231492396</v>
+        <v>2.372137882296278</v>
       </c>
       <c r="M136" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C137">
-        <v>0.7038227721</v>
+        <v>0.7190673247741936</v>
       </c>
       <c r="D137" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E137">
-        <v>8855.472297375947</v>
+        <v>51198.99361919194</v>
       </c>
       <c r="F137">
-        <v>27974.43698741061</v>
+        <v>161737.6208430273</v>
       </c>
       <c r="G137">
-        <v>97.19482839106935</v>
+        <v>438.109814535165</v>
       </c>
       <c r="H137">
-        <v>1.018306065234996</v>
+        <v>76.16236322150311</v>
       </c>
       <c r="I137">
-        <v>0.1771094459475189</v>
+        <v>1.023979872383838</v>
       </c>
       <c r="J137">
-        <v>10892.23092577242</v>
+        <v>62974.76215160608</v>
       </c>
       <c r="K137">
-        <v>10.62656675685114</v>
+        <v>61.43879234303031</v>
       </c>
       <c r="L137">
-        <v>0.2168687093234926</v>
+        <v>1.253852904959802</v>
       </c>
       <c r="M137" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B138" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C138">
-        <v>0.7145069886451613</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D138" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E138">
-        <v>6595.359410518415</v>
+        <v>4753.9641625595</v>
       </c>
       <c r="F138">
-        <v>20834.74037782767</v>
+        <v>15017.77278952546</v>
       </c>
       <c r="G138">
-        <v>73.64016154352225</v>
+        <v>54.61127614431255</v>
       </c>
       <c r="H138">
-        <v>0.6909445732272366</v>
+        <v>1.277338857844106</v>
       </c>
       <c r="I138">
-        <v>0.1319071882103683</v>
+        <v>0.09507928325119</v>
       </c>
       <c r="J138">
-        <v>8112.29207493765</v>
+        <v>5847.375919948186</v>
       </c>
       <c r="K138">
-        <v>7.914431292622096</v>
+        <v>5.704756995071401</v>
       </c>
       <c r="L138">
-        <v>0.1615190059718795</v>
+        <v>0.1164236121443143</v>
       </c>
       <c r="M138" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C139">
-        <v>0.7038227721</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D139" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E139">
-        <v>3222.138446400574</v>
+        <v>4753.9641625595</v>
       </c>
       <c r="F139">
-        <v>10178.73535217941</v>
+        <v>15017.77278952546</v>
       </c>
       <c r="G139">
-        <v>34.67645352326583</v>
+        <v>54.61127614431255</v>
       </c>
       <c r="H139">
-        <v>0.5199646278277302</v>
+        <v>1.277338857844106</v>
       </c>
       <c r="I139">
-        <v>0.06444276892801148</v>
+        <v>0.09507928325119</v>
       </c>
       <c r="J139">
-        <v>3963.230289072707</v>
+        <v>5847.375919948186</v>
       </c>
       <c r="K139">
-        <v>3.86656613568069</v>
+        <v>5.704756995071401</v>
       </c>
       <c r="L139">
-        <v>0.0789095129730753</v>
+        <v>0.1164236121443143</v>
       </c>
       <c r="M139" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C140">
-        <v>0.6060793402</v>
+        <v>0.6078310146</v>
       </c>
       <c r="D140" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E140">
-        <v>19782.26114908763</v>
+        <v>43947.14296766045</v>
       </c>
       <c r="F140">
-        <v>62492.16296996781</v>
+        <v>138829.0246348394</v>
       </c>
       <c r="G140">
-        <v>286.4122540774632</v>
+        <v>358.5053855312952</v>
       </c>
       <c r="H140">
-        <v>0.9493754735357014</v>
+        <v>68.42647698298269</v>
       </c>
       <c r="I140">
-        <v>0.3956452229817525</v>
+        <v>0.8789428593532088</v>
       </c>
       <c r="J140">
-        <v>24332.18121337778</v>
+        <v>54054.98585022235</v>
       </c>
       <c r="K140">
-        <v>23.73871337890515</v>
+        <v>52.73657156119253</v>
       </c>
       <c r="L140">
-        <v>0.484463538345003</v>
+        <v>1.076256562473317</v>
       </c>
       <c r="M140" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B141" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C141">
-        <v>0.6060793402</v>
+        <v>0.6078310146</v>
       </c>
       <c r="D141" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E141">
-        <v>15518.19155272336</v>
+        <v>43947.14296766045</v>
       </c>
       <c r="F141">
-        <v>49021.96711505309</v>
+        <v>138829.0246348394</v>
       </c>
       <c r="G141">
-        <v>173.0333084910257</v>
+        <v>358.5053855312952</v>
       </c>
       <c r="H141">
-        <v>0.9059391519989739</v>
+        <v>68.42647698298269</v>
       </c>
       <c r="I141">
-        <v>0.3103638310544671</v>
+        <v>0.8789428593532088</v>
       </c>
       <c r="J141">
-        <v>19087.37560984973</v>
+        <v>54054.98585022235</v>
       </c>
       <c r="K141">
-        <v>18.62182986326803</v>
+        <v>52.73657156119253</v>
       </c>
       <c r="L141">
-        <v>0.380037344148327</v>
+        <v>1.076256562473317</v>
       </c>
       <c r="M141" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B142" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C142">
-        <v>0.6060793402</v>
+        <v>0.5435416204</v>
       </c>
       <c r="D142" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="E142">
-        <v>53576.48600587581</v>
+        <v>4599.999158670345</v>
       </c>
       <c r="F142">
-        <v>169248.1192925617</v>
+        <v>14531.39734223962</v>
       </c>
       <c r="G142">
-        <v>1074.750280552945</v>
+        <v>49.0051621884025</v>
       </c>
       <c r="H142">
-        <v>6.148166697862745</v>
+        <v>2.267673656723539</v>
       </c>
       <c r="I142">
-        <v>1.071529720117516</v>
+        <v>0.09199998317340689</v>
       </c>
       <c r="J142">
-        <v>65899.07778722723</v>
+        <v>5657.998965164525</v>
       </c>
       <c r="K142">
-        <v>64.29178320705097</v>
+        <v>5.519998990404414</v>
       </c>
       <c r="L142">
-        <v>1.312077208307163</v>
+        <v>0.1126530406204982</v>
       </c>
       <c r="M142" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C143">
-        <v>0.6087068517999999</v>
+        <v>0.7038227721</v>
       </c>
       <c r="D143" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="E143">
-        <v>9219.101734653206</v>
+        <v>3222.138446400574</v>
       </c>
       <c r="F143">
-        <v>29123.14237976948</v>
+        <v>10178.73535217941</v>
       </c>
       <c r="G143">
-        <v>117.3022429579724</v>
+        <v>34.67645352326583</v>
       </c>
       <c r="H143">
-        <v>0.6032029204635462</v>
+        <v>0.5199646278277302</v>
       </c>
       <c r="I143">
-        <v>0.1843820346930641</v>
+        <v>0.06444276892801148</v>
       </c>
       <c r="J143">
-        <v>11339.49513362344</v>
+        <v>3963.230289072707</v>
       </c>
       <c r="K143">
-        <v>11.06292208158385</v>
+        <v>3.86656613568069</v>
       </c>
       <c r="L143">
-        <v>0.2257739200323234</v>
+        <v>0.0789095129730753</v>
       </c>
       <c r="M143" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B144" t="s">
         <v>78</v>
       </c>
       <c r="C144">
-        <v>0.5353739458064516</v>
+        <v>0.7038227721</v>
       </c>
       <c r="D144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E144">
-        <v>3407.855641598607</v>
+        <v>3222.138446400574</v>
       </c>
       <c r="F144">
-        <v>10765.41597181</v>
+        <v>10178.73535217941</v>
       </c>
       <c r="G144">
-        <v>37.99174359301636</v>
+        <v>34.67645352326583</v>
       </c>
       <c r="H144">
-        <v>0.7499441284504514</v>
+        <v>0.5199646278277302</v>
       </c>
       <c r="I144">
-        <v>0.06815711283197212</v>
+        <v>0.06444276892801148</v>
       </c>
       <c r="J144">
-        <v>4191.662439166286</v>
+        <v>3963.230289072707</v>
       </c>
       <c r="K144">
-        <v>4.089426769918326</v>
+        <v>3.86656613568069</v>
       </c>
       <c r="L144">
-        <v>0.08345768918200666</v>
+        <v>0.0789095129730753</v>
       </c>
       <c r="M144" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C145">
-        <v>0.6060793402</v>
+        <v>0.7167871567096774</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E145">
-        <v>3383.101368203159</v>
+        <v>1168.330076640892</v>
       </c>
       <c r="F145">
-        <v>10687.21722215378</v>
+        <v>3690.754712108579</v>
       </c>
       <c r="G145">
-        <v>43.54907163301327</v>
+        <v>7.455723391322747</v>
       </c>
       <c r="H145">
-        <v>0.5957640370588945</v>
+        <v>6.078604707497345</v>
       </c>
       <c r="I145">
-        <v>0.06766202736406317</v>
+        <v>0.02336660153281785</v>
       </c>
       <c r="J145">
-        <v>4161.214682889885</v>
+        <v>1437.045994268298</v>
       </c>
       <c r="K145">
-        <v>4.05972164184379</v>
+        <v>1.401996091969071</v>
       </c>
       <c r="L145">
-        <v>0.0828514620784447</v>
+        <v>0.02861216514222593</v>
       </c>
       <c r="M145" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C146">
-        <v>0.6060793402</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D146" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E146">
-        <v>40086.15588622118</v>
+        <v>35222.7382760496</v>
       </c>
       <c r="F146">
-        <v>126632.1664445727</v>
+        <v>111268.6302140407</v>
       </c>
       <c r="G146">
-        <v>728.1945693843451</v>
+        <v>489.558111655775</v>
       </c>
       <c r="H146">
-        <v>0.784371687649452</v>
+        <v>4.629562235328873</v>
       </c>
       <c r="I146">
-        <v>0.8017231177244233</v>
+        <v>0.7044547655209921</v>
       </c>
       <c r="J146">
-        <v>49305.97174005204</v>
+        <v>43323.96807954101</v>
       </c>
       <c r="K146">
-        <v>48.10338706346541</v>
+        <v>42.26728593125952</v>
       </c>
       <c r="L146">
-        <v>0.9817017768054164</v>
+        <v>0.8625976720665208</v>
       </c>
       <c r="M146" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C147">
-        <v>0.6217031460645162</v>
+        <v>0.7088717159333333</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E147">
-        <v>5187.264820680712</v>
+        <v>7632.447317737308</v>
       </c>
       <c r="F147">
-        <v>16386.56956853037</v>
+        <v>24110.90107673216</v>
       </c>
       <c r="G147">
-        <v>65.66454709051763</v>
+        <v>80.18416351517652</v>
       </c>
       <c r="H147">
-        <v>0.3568891270806632</v>
+        <v>0.9487994128325645</v>
       </c>
       <c r="I147">
-        <v>0.1037452964136142</v>
+        <v>0.1526489463547462</v>
       </c>
       <c r="J147">
-        <v>6380.335729437276</v>
+        <v>9387.91020081689</v>
       </c>
       <c r="K147">
-        <v>6.224717784816853</v>
+        <v>9.158936781284769</v>
       </c>
       <c r="L147">
-        <v>0.127035056832997</v>
+        <v>0.186917077169077</v>
       </c>
       <c r="M147" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C148">
-        <v>0.6987738282666667</v>
+        <v>0.6404209906333334</v>
       </c>
       <c r="D148" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="E148">
-        <v>1788.177729158816</v>
+        <v>32013.62419526062</v>
       </c>
       <c r="F148">
-        <v>5648.8534464127</v>
+        <v>101131.0388328283</v>
       </c>
       <c r="G148">
-        <v>16.59957171269182</v>
+        <v>420.8527224385067</v>
       </c>
       <c r="H148">
-        <v>0.1051721398530868</v>
+        <v>6.827663388548187</v>
       </c>
       <c r="I148">
-        <v>0.03576355458317632</v>
+        <v>0.6402724839052123</v>
       </c>
       <c r="J148">
-        <v>2199.458606865344</v>
+        <v>39376.75776017056</v>
       </c>
       <c r="K148">
-        <v>2.145813274990579</v>
+        <v>38.41634903431274</v>
       </c>
       <c r="L148">
-        <v>0.04379210765286896</v>
+        <v>0.7840071231492396</v>
       </c>
       <c r="M148" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B149" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C149">
-        <v>0.5245896810666667</v>
+        <v>0.7145069886451613</v>
       </c>
       <c r="D149" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E149">
-        <v>5195.839048977507</v>
+        <v>6595.359410518415</v>
       </c>
       <c r="F149">
-        <v>16413.65555571994</v>
+        <v>20834.74037782767</v>
       </c>
       <c r="G149">
-        <v>72.93531029111351</v>
+        <v>73.64016154352225</v>
       </c>
       <c r="H149">
-        <v>0.3576047221638156</v>
+        <v>0.6909445732272366</v>
       </c>
       <c r="I149">
-        <v>0.1039167809795501</v>
+        <v>0.1319071882103683</v>
       </c>
       <c r="J149">
-        <v>6390.882030242332</v>
+        <v>8112.29207493765</v>
       </c>
       <c r="K149">
-        <v>6.235006858773006</v>
+        <v>7.914431292622096</v>
       </c>
       <c r="L149">
-        <v>0.127245037934143</v>
+        <v>0.1615190059718795</v>
       </c>
       <c r="M149" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C150">
-        <v>0.5245896810666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E150">
-        <v>5195.839048977507</v>
+        <v>19782.26114908763</v>
       </c>
       <c r="F150">
-        <v>16413.65555571994</v>
+        <v>62492.16296996781</v>
       </c>
       <c r="G150">
-        <v>72.93531029111351</v>
+        <v>286.4122540774632</v>
       </c>
       <c r="H150">
-        <v>0.3576047221638156</v>
+        <v>0.9493754735357014</v>
       </c>
       <c r="I150">
-        <v>0.1039167809795501</v>
+        <v>0.3956452229817525</v>
       </c>
       <c r="J150">
-        <v>6390.882030242332</v>
+        <v>24332.18121337778</v>
       </c>
       <c r="K150">
-        <v>6.235006858773006</v>
+        <v>23.73871337890515</v>
       </c>
       <c r="L150">
-        <v>0.127245037934143</v>
+        <v>0.484463538345003</v>
       </c>
       <c r="M150" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C151">
-        <v>0.5245896810666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E151">
-        <v>5195.839048977507</v>
+        <v>15518.19155272336</v>
       </c>
       <c r="F151">
-        <v>16413.65555571994</v>
+        <v>49021.96711505309</v>
       </c>
       <c r="G151">
-        <v>72.93531029111351</v>
+        <v>173.0333084910257</v>
       </c>
       <c r="H151">
-        <v>0.3576047221638156</v>
+        <v>0.9059391519989739</v>
       </c>
       <c r="I151">
-        <v>0.1039167809795501</v>
+        <v>0.3103638310544671</v>
       </c>
       <c r="J151">
-        <v>6390.882030242332</v>
+        <v>19087.37560984973</v>
       </c>
       <c r="K151">
-        <v>6.235006858773006</v>
+        <v>18.62182986326803</v>
       </c>
       <c r="L151">
-        <v>0.127245037934143</v>
+        <v>0.380037344148327</v>
       </c>
       <c r="M151" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C152">
-        <v>0.5245896810666667</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D152" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E152">
-        <v>5195.839048977507</v>
+        <v>53576.48600587581</v>
       </c>
       <c r="F152">
-        <v>16413.65555571994</v>
+        <v>169248.1192925617</v>
       </c>
       <c r="G152">
-        <v>72.93531029111351</v>
+        <v>1074.750280552945</v>
       </c>
       <c r="H152">
-        <v>0.3576047221638156</v>
+        <v>6.148166697862745</v>
       </c>
       <c r="I152">
-        <v>0.1039167809795501</v>
+        <v>1.071529720117516</v>
       </c>
       <c r="J152">
-        <v>6390.882030242332</v>
+        <v>65899.07778722723</v>
       </c>
       <c r="K152">
-        <v>6.235006858773006</v>
+        <v>64.29178320705097</v>
       </c>
       <c r="L152">
-        <v>0.127245037934143</v>
+        <v>1.312077208307163</v>
       </c>
       <c r="M152" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C153">
-        <v>0.5245896810666667</v>
+        <v>0.6087068517999999</v>
       </c>
       <c r="D153" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E153">
-        <v>5195.839048977507</v>
+        <v>9219.101734653206</v>
       </c>
       <c r="F153">
-        <v>16413.65555571994</v>
+        <v>29123.14237976948</v>
       </c>
       <c r="G153">
-        <v>72.93531029111351</v>
+        <v>117.3022429579724</v>
       </c>
       <c r="H153">
-        <v>0.3576047221638156</v>
+        <v>0.6032029204635462</v>
       </c>
       <c r="I153">
-        <v>0.1039167809795501</v>
+        <v>0.1843820346930641</v>
       </c>
       <c r="J153">
-        <v>6390.882030242332</v>
+        <v>11339.49513362344</v>
       </c>
       <c r="K153">
-        <v>6.235006858773006</v>
+        <v>11.06292208158385</v>
       </c>
       <c r="L153">
-        <v>0.127245037934143</v>
+        <v>0.2257739200323234</v>
       </c>
       <c r="M153" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7201,259 +7228,259 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C154">
-        <v>0.5245896810666667</v>
+        <v>0.5353739458064516</v>
       </c>
       <c r="D154" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E154">
-        <v>5195.839048977507</v>
+        <v>3407.855641598607</v>
       </c>
       <c r="F154">
-        <v>16413.65555571994</v>
+        <v>10765.41597181</v>
       </c>
       <c r="G154">
-        <v>72.93531029111351</v>
+        <v>37.99174359301636</v>
       </c>
       <c r="H154">
-        <v>0.3576047221638156</v>
+        <v>0.7499441284504514</v>
       </c>
       <c r="I154">
-        <v>0.1039167809795501</v>
+        <v>0.06815711283197212</v>
       </c>
       <c r="J154">
-        <v>6390.882030242332</v>
+        <v>4191.662439166286</v>
       </c>
       <c r="K154">
-        <v>6.235006858773006</v>
+        <v>4.089426769918326</v>
       </c>
       <c r="L154">
-        <v>0.127245037934143</v>
+        <v>0.08345768918200666</v>
       </c>
       <c r="M154" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C155">
-        <v>0.658850372</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D155" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E155">
-        <v>26040.84975337621</v>
+        <v>40086.15588622118</v>
       </c>
       <c r="F155">
-        <v>82263.04437091548</v>
+        <v>126632.1664445727</v>
       </c>
       <c r="G155">
-        <v>352.2223766477245</v>
+        <v>728.1945693843451</v>
       </c>
       <c r="H155">
-        <v>1.022417080573373</v>
+        <v>0.784371687649452</v>
       </c>
       <c r="I155">
-        <v>0.5208169950675242</v>
+        <v>0.8017231177244233</v>
       </c>
       <c r="J155">
-        <v>32030.24519665274</v>
+        <v>49305.97174005204</v>
       </c>
       <c r="K155">
-        <v>31.24901970405146</v>
+        <v>48.10338706346541</v>
       </c>
       <c r="L155">
-        <v>0.6377350960010502</v>
+        <v>0.9817017768054164</v>
       </c>
       <c r="M155" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C156">
-        <v>0.6987738282666667</v>
+        <v>0.8058931091935484</v>
       </c>
       <c r="D156" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E156">
-        <v>35222.7382760496</v>
+        <v>10237.85739006932</v>
       </c>
       <c r="F156">
-        <v>111268.6302140407</v>
+        <v>32341.39149522899</v>
       </c>
       <c r="G156">
-        <v>489.558111655775</v>
+        <v>98.74744879130967</v>
       </c>
       <c r="H156">
-        <v>4.629562235328873</v>
+        <v>0.70770252036237</v>
       </c>
       <c r="I156">
-        <v>0.7044547655209921</v>
+        <v>0.2047571478013864</v>
       </c>
       <c r="J156">
-        <v>43323.96807954101</v>
+        <v>12592.56458978526</v>
       </c>
       <c r="K156">
-        <v>42.26728593125952</v>
+        <v>12.28542886808318</v>
       </c>
       <c r="L156">
-        <v>0.8625976720665208</v>
+        <v>0.2507230381241466</v>
       </c>
       <c r="M156" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C157">
-        <v>0.7028129833333333</v>
+        <v>0.6217031460645162</v>
       </c>
       <c r="D157" t="s">
         <v>146</v>
       </c>
       <c r="E157">
-        <v>4800.472256252971</v>
+        <v>5187.264820680712</v>
       </c>
       <c r="F157">
-        <v>15164.69185750314</v>
+        <v>16386.56956853037</v>
       </c>
       <c r="G157">
-        <v>57.70803501181904</v>
+        <v>65.66454709051763</v>
       </c>
       <c r="H157">
-        <v>0.7121785272833751</v>
+        <v>0.3568891270806632</v>
       </c>
       <c r="I157">
-        <v>0.09600944512505943</v>
+        <v>0.1037452964136142</v>
       </c>
       <c r="J157">
-        <v>5904.580875191155</v>
+        <v>6380.335729437276</v>
       </c>
       <c r="K157">
-        <v>5.760566707503566</v>
+        <v>6.224717784816853</v>
       </c>
       <c r="L157">
-        <v>0.1175625858674197</v>
+        <v>0.127035056832997</v>
       </c>
       <c r="M157" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C158">
-        <v>0.6060793402</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D158" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E158">
-        <v>19167.92624150596</v>
+        <v>1788.177729158816</v>
       </c>
       <c r="F158">
-        <v>60551.47899691733</v>
+        <v>5648.8534464127</v>
       </c>
       <c r="G158">
-        <v>262.7750916360757</v>
+        <v>16.59957171269182</v>
       </c>
       <c r="H158">
-        <v>1.064313435026846</v>
+        <v>0.1051721398530868</v>
       </c>
       <c r="I158">
-        <v>0.3833585248301192</v>
+        <v>0.03576355458317632</v>
       </c>
       <c r="J158">
-        <v>23576.54927705233</v>
+        <v>2199.458606865344</v>
       </c>
       <c r="K158">
-        <v>23.00151148980715</v>
+        <v>2.145813274990579</v>
       </c>
       <c r="L158">
-        <v>0.469418601832799</v>
+        <v>0.04379210765286896</v>
       </c>
       <c r="M158" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C159">
-        <v>0.6394995216</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D159" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E159">
-        <v>2307.347828496649</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F159">
-        <v>7288.911790220915</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G159">
-        <v>28.85684933386326</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H159">
-        <v>0.1880742584615698</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I159">
-        <v>0.04614695656993298</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J159">
-        <v>2838.037829050879</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K159">
-        <v>2.76881739419598</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L159">
-        <v>0.05650647743257101</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M159" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B160" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C160">
         <v>0.5245896810666667</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E160">
         <v>5195.839048977507</v>
@@ -7480,48 +7507,48 @@
         <v>0.127245037934143</v>
       </c>
       <c r="M160" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B161" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C161">
-        <v>0.6385780525666667</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D161" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E161">
-        <v>30440.35663888368</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F161">
-        <v>96161.08662223353</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G161">
-        <v>412.2223714686671</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H161">
-        <v>1.476008034413601</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I161">
-        <v>0.6088071327776735</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J161">
-        <v>37441.63866582692</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K161">
-        <v>36.52842796666042</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L161">
-        <v>0.74547812176858</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M161" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -7529,737 +7556,1147 @@
         <v>127</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C162">
-        <v>0.6228897643225807</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D162" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E162">
-        <v>9042.704612219764</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F162">
-        <v>28565.90387000223</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G162">
-        <v>93.89993008349465</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H162">
-        <v>1.474574557996754</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I162">
-        <v>0.1808540922443952</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J162">
-        <v>11122.52667303031</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K162">
-        <v>10.85124553466371</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L162">
-        <v>0.2214539905033411</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M162" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B163" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C163">
-        <v>0.7873938323333334</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D163" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="E163">
-        <v>45551.08179680312</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F163">
-        <v>143895.867396101</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G163">
-        <v>695.978680883931</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H163">
-        <v>1.155094507529066</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I163">
-        <v>0.9110216359360622</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J163">
-        <v>56027.83061006784</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K163">
-        <v>54.66129815616374</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L163">
-        <v>1.115536697064566</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M163" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C164">
-        <v>0.7885316846666667</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D164" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E164">
-        <v>37424.32183801806</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F164">
-        <v>118223.432686299</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G164">
-        <v>914.9514549481853</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H164">
-        <v>0.01990587632484503</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I164">
-        <v>0.748486436760361</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J164">
-        <v>46031.91586076221</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K164">
-        <v>44.90918620562167</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L164">
-        <v>0.9165140041963604</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M164" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C165">
-        <v>0.5245896810666667</v>
+        <v>0.658850372</v>
       </c>
       <c r="D165" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="E165">
-        <v>5195.839048977507</v>
+        <v>26040.84975337621</v>
       </c>
       <c r="F165">
-        <v>16413.65555571994</v>
+        <v>82263.04437091548</v>
       </c>
       <c r="G165">
-        <v>72.93531029111351</v>
+        <v>352.2223766477245</v>
       </c>
       <c r="H165">
-        <v>0.3576047221638156</v>
+        <v>1.022417080573373</v>
       </c>
       <c r="I165">
-        <v>0.1039167809795501</v>
+        <v>0.5208169950675242</v>
       </c>
       <c r="J165">
-        <v>6390.882030242332</v>
+        <v>32030.24519665274</v>
       </c>
       <c r="K165">
-        <v>6.235006858773006</v>
+        <v>31.24901970405146</v>
       </c>
       <c r="L165">
-        <v>0.127245037934143</v>
+        <v>0.6377350960010502</v>
       </c>
       <c r="M165" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C166">
-        <v>0.6997836170333334</v>
+        <v>0.7190673247741936</v>
       </c>
       <c r="D166" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E166">
-        <v>10395.91125180166</v>
+        <v>51198.99361919194</v>
       </c>
       <c r="F166">
-        <v>32840.68364444144</v>
+        <v>161737.6208430273</v>
       </c>
       <c r="G166">
-        <v>102.5834306751267</v>
+        <v>438.109814535165</v>
       </c>
       <c r="H166">
-        <v>1.235813609230849</v>
+        <v>76.16236322150311</v>
       </c>
       <c r="I166">
-        <v>0.2079182250360331</v>
+        <v>1.023979872383838</v>
       </c>
       <c r="J166">
-        <v>12786.97083971604</v>
+        <v>62974.76215160608</v>
       </c>
       <c r="K166">
-        <v>12.47509350216199</v>
+        <v>61.43879234303031</v>
       </c>
       <c r="L166">
-        <v>0.2545937449420814</v>
+        <v>1.253852904959802</v>
       </c>
       <c r="M166" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B167" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C167">
-        <v>0.6997836170333334</v>
+        <v>0.7028129833333333</v>
       </c>
       <c r="D167" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E167">
-        <v>10395.91125180166</v>
+        <v>4800.472256252971</v>
       </c>
       <c r="F167">
-        <v>32840.68364444144</v>
+        <v>15164.69185750314</v>
       </c>
       <c r="G167">
-        <v>102.5834306751267</v>
+        <v>57.70803501181904</v>
       </c>
       <c r="H167">
-        <v>1.235813609230849</v>
+        <v>0.7121785272833751</v>
       </c>
       <c r="I167">
-        <v>0.2079182250360331</v>
+        <v>0.09600944512505943</v>
       </c>
       <c r="J167">
-        <v>12786.97083971604</v>
+        <v>5904.580875191155</v>
       </c>
       <c r="K167">
-        <v>12.47509350216199</v>
+        <v>5.760566707503566</v>
       </c>
       <c r="L167">
-        <v>0.2545937449420814</v>
+        <v>0.1175625858674197</v>
       </c>
       <c r="M167" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B168" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C168">
-        <v>0.6385780525666667</v>
+        <v>0.6087068517999999</v>
       </c>
       <c r="D168" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E168">
-        <v>3601.361817914853</v>
+        <v>6799.454036614485</v>
       </c>
       <c r="F168">
-        <v>11376.70198279302</v>
+        <v>21479.47530166515</v>
       </c>
       <c r="G168">
-        <v>46.5217946235518</v>
+        <v>61.07006268140258</v>
       </c>
       <c r="H168">
-        <v>0.2173838870370223</v>
+        <v>0.995194777293291</v>
       </c>
       <c r="I168">
-        <v>0.07202723635829704</v>
+        <v>0.1359890807322897</v>
       </c>
       <c r="J168">
-        <v>4429.675036035269</v>
+        <v>8363.328465035815</v>
       </c>
       <c r="K168">
-        <v>4.321634181497823</v>
+        <v>8.159344843937379</v>
       </c>
       <c r="L168">
-        <v>0.08819661594893516</v>
+        <v>0.1665172417130078</v>
       </c>
       <c r="M168" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B169" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C169">
-        <v>0.7170151735161291</v>
+        <v>0.6060793402</v>
       </c>
       <c r="D169" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E169">
-        <v>7892.722245013249</v>
+        <v>19167.92624150596</v>
       </c>
       <c r="F169">
-        <v>24933.10957199685</v>
+        <v>60551.47899691733</v>
       </c>
       <c r="G169">
-        <v>83.64860050510785</v>
+        <v>262.7750916360757</v>
       </c>
       <c r="H169">
-        <v>0.7861665788517769</v>
+        <v>1.064313435026846</v>
       </c>
       <c r="I169">
-        <v>0.157854444900265</v>
+        <v>0.3833585248301192</v>
       </c>
       <c r="J169">
-        <v>9708.048361366296</v>
+        <v>23576.54927705233</v>
       </c>
       <c r="K169">
-        <v>9.471266694015899</v>
+        <v>23.00151148980715</v>
       </c>
       <c r="L169">
-        <v>0.1932911570207326</v>
+        <v>0.469418601832799</v>
       </c>
       <c r="M169" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
+        <v>131</v>
+      </c>
+      <c r="B170" t="s">
         <v>132</v>
       </c>
-      <c r="B170" t="s">
-        <v>71</v>
-      </c>
       <c r="C170">
-        <v>0.806663912451613</v>
+        <v>0.6394995216</v>
       </c>
       <c r="D170" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E170">
-        <v>48994.40072963476</v>
+        <v>2307.347828496649</v>
       </c>
       <c r="F170">
-        <v>154773.3119049162</v>
+        <v>7288.911790220915</v>
       </c>
       <c r="G170">
-        <v>665.9901771873696</v>
+        <v>28.85684933386326</v>
       </c>
       <c r="H170">
-        <v>3.190905962218407</v>
+        <v>0.1880742584615698</v>
       </c>
       <c r="I170">
-        <v>0.9798880145926949</v>
+        <v>0.04614695656993298</v>
       </c>
       <c r="J170">
-        <v>60263.11289745074</v>
+        <v>2838.037829050879</v>
       </c>
       <c r="K170">
-        <v>58.79328087556171</v>
+        <v>2.76881739419598</v>
       </c>
       <c r="L170">
-        <v>1.199862875011463</v>
+        <v>0.05650647743257101</v>
       </c>
       <c r="M170" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C171">
-        <v>0.7158750894838709</v>
+        <v>0.6987738282666667</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E171">
-        <v>41331.78367652622</v>
+        <v>35222.7382760496</v>
       </c>
       <c r="F171">
-        <v>130567.1046341463</v>
+        <v>111268.6302140407</v>
       </c>
       <c r="G171">
-        <v>558.6103746663845</v>
+        <v>489.558111655775</v>
       </c>
       <c r="H171">
-        <v>5.047350007957125</v>
+        <v>4.629562235328873</v>
       </c>
       <c r="I171">
-        <v>0.8266356735305245</v>
+        <v>0.7044547655209921</v>
       </c>
       <c r="J171">
-        <v>50838.09392212726</v>
+        <v>43323.96807954101</v>
       </c>
       <c r="K171">
-        <v>49.59814041183147</v>
+        <v>42.26728593125952</v>
       </c>
       <c r="L171">
-        <v>1.012206947180234</v>
+        <v>0.8625976720665208</v>
       </c>
       <c r="M171" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B172" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C172">
-        <v>0.809747125483871</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D172" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E172">
-        <v>39748.55515223798</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F172">
-        <v>125565.6857259198</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G172">
-        <v>549.2414153786882</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H172">
-        <v>4.155471783927576</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I172">
-        <v>0.7949711030447597</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J172">
-        <v>48890.72283725272</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K172">
-        <v>47.69826618268559</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L172">
-        <v>0.9734340037282772</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M172" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C173">
-        <v>0.6987738282666667</v>
+        <v>0.6385780525666667</v>
       </c>
       <c r="D173" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E173">
-        <v>37115.9564885392</v>
+        <v>30440.35663888368</v>
       </c>
       <c r="F173">
-        <v>117249.3065472954</v>
+        <v>96161.08662223353</v>
       </c>
       <c r="G173">
-        <v>506.8520648729752</v>
+        <v>412.2223714686671</v>
       </c>
       <c r="H173">
-        <v>4.736248404860567</v>
+        <v>1.476008034413601</v>
       </c>
       <c r="I173">
-        <v>0.7423191297707841</v>
+        <v>0.6088071327776735</v>
       </c>
       <c r="J173">
-        <v>45652.62648090323</v>
+        <v>37441.63866582692</v>
       </c>
       <c r="K173">
-        <v>44.53914778624704</v>
+        <v>36.52842796666042</v>
       </c>
       <c r="L173">
-        <v>0.9089621997193275</v>
+        <v>0.74547812176858</v>
       </c>
       <c r="M173" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B174" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C174">
-        <v>0.8116680160999999</v>
+        <v>0.6228897643225807</v>
       </c>
       <c r="D174" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E174">
-        <v>72410.34381504406</v>
+        <v>9042.704612219764</v>
       </c>
       <c r="F174">
-        <v>228744.2761117242</v>
+        <v>28565.90387000223</v>
       </c>
       <c r="G174">
-        <v>1232.335228319881</v>
+        <v>93.89993008349465</v>
       </c>
       <c r="H174">
-        <v>0.9628311986115822</v>
+        <v>1.474574557996754</v>
       </c>
       <c r="I174">
-        <v>1.448206876300881</v>
+        <v>0.1808540922443952</v>
       </c>
       <c r="J174">
-        <v>89064.72289250421</v>
+        <v>11122.52667303031</v>
       </c>
       <c r="K174">
-        <v>86.89241257805288</v>
+        <v>10.85124553466371</v>
       </c>
       <c r="L174">
-        <v>1.773314542409242</v>
+        <v>0.2214539905033411</v>
       </c>
       <c r="M174" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B175" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C175">
-        <v>0.5261058362000001</v>
+        <v>0.6555509182580644</v>
       </c>
       <c r="D175" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E175">
-        <v>4038.085151282208</v>
+        <v>11590.89215489633</v>
       </c>
       <c r="F175">
-        <v>12756.31099290049</v>
+        <v>36615.6283173175</v>
       </c>
       <c r="G175">
-        <v>49.90017846054127</v>
+        <v>100.5579033336506</v>
       </c>
       <c r="H175">
-        <v>0.5282755499768598</v>
+        <v>0.8229355393678655</v>
       </c>
       <c r="I175">
-        <v>0.08076170302564414</v>
+        <v>0.2318178430979265</v>
       </c>
       <c r="J175">
-        <v>4966.844736077115</v>
+        <v>14256.79735052248</v>
       </c>
       <c r="K175">
-        <v>4.845702181538648</v>
+        <v>13.90907058587559</v>
       </c>
       <c r="L175">
-        <v>0.09889188125589081</v>
+        <v>0.2838585833852161</v>
       </c>
       <c r="M175" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C176">
-        <v>0.6069551773999999</v>
+        <v>0.7885316846666667</v>
       </c>
       <c r="D176" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E176">
-        <v>6400.667851646201</v>
+        <v>37424.32183801806</v>
       </c>
       <c r="F176">
-        <v>20219.70974335034</v>
+        <v>118223.432686299</v>
       </c>
       <c r="G176">
-        <v>74.45919118876353</v>
+        <v>914.9514549481853</v>
       </c>
       <c r="H176">
-        <v>0.782702814723709</v>
+        <v>0.01990587632484503</v>
       </c>
       <c r="I176">
-        <v>0.128013357032924</v>
+        <v>0.748486436760361</v>
       </c>
       <c r="J176">
-        <v>7872.821457524826</v>
+        <v>46031.91586076221</v>
       </c>
       <c r="K176">
-        <v>7.680801421975439</v>
+        <v>44.90918620562167</v>
       </c>
       <c r="L176">
-        <v>0.1567510494280702</v>
+        <v>0.9165140041963604</v>
       </c>
       <c r="M176" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B177" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C177">
-        <v>0.6987738282666667</v>
+        <v>0.5245896810666667</v>
       </c>
       <c r="D177" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E177">
-        <v>37115.9564885392</v>
+        <v>5195.839048977507</v>
       </c>
       <c r="F177">
-        <v>117249.3065472954</v>
+        <v>16413.65555571994</v>
       </c>
       <c r="G177">
-        <v>506.8520648729752</v>
+        <v>72.93531029111351</v>
       </c>
       <c r="H177">
-        <v>4.736248404860567</v>
+        <v>0.3576047221638156</v>
       </c>
       <c r="I177">
-        <v>0.7423191297707841</v>
+        <v>0.1039167809795501</v>
       </c>
       <c r="J177">
-        <v>45652.62648090323</v>
+        <v>6390.882030242332</v>
       </c>
       <c r="K177">
-        <v>44.53914778624704</v>
+        <v>6.235006858773006</v>
       </c>
       <c r="L177">
-        <v>0.9089621997193275</v>
+        <v>0.127245037934143</v>
       </c>
       <c r="M177" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C178">
-        <v>0.5245896810666667</v>
+        <v>0.6394995216</v>
       </c>
       <c r="D178" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="E178">
-        <v>5381.379117934866</v>
+        <v>85835.80229469133</v>
       </c>
       <c r="F178">
-        <v>16999.77663355624</v>
+        <v>271155.2994489298</v>
       </c>
       <c r="G178">
-        <v>67.16775323619557</v>
+        <v>1212.034849699766</v>
       </c>
       <c r="H178">
-        <v>0.7724342144496155</v>
+        <v>8.443993614047589</v>
       </c>
       <c r="I178">
-        <v>0.1076275823586973</v>
+        <v>1.716716045893826</v>
       </c>
       <c r="J178">
-        <v>6619.096315059885</v>
+        <v>105578.0368224703</v>
       </c>
       <c r="K178">
-        <v>6.457654941521838</v>
+        <v>103.0029627536296</v>
       </c>
       <c r="L178">
-        <v>0.1317888763575885</v>
+        <v>2.102101280686318</v>
       </c>
       <c r="M178" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" t="s">
+        <v>136</v>
+      </c>
+      <c r="C179">
+        <v>0.6997836170333334</v>
+      </c>
+      <c r="D179" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179">
+        <v>10395.91125180166</v>
+      </c>
+      <c r="F179">
+        <v>32840.68364444144</v>
+      </c>
+      <c r="G179">
+        <v>102.5834306751267</v>
+      </c>
+      <c r="H179">
+        <v>1.235813609230849</v>
+      </c>
+      <c r="I179">
+        <v>0.2079182250360331</v>
+      </c>
+      <c r="J179">
+        <v>12786.97083971604</v>
+      </c>
+      <c r="K179">
+        <v>12.47509350216199</v>
+      </c>
+      <c r="L179">
+        <v>0.2545937449420814</v>
+      </c>
+      <c r="M179" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180">
+        <v>0.6385780525666667</v>
+      </c>
+      <c r="D180" t="s">
+        <v>146</v>
+      </c>
+      <c r="E180">
+        <v>3601.361817914853</v>
+      </c>
+      <c r="F180">
+        <v>11376.70198279302</v>
+      </c>
+      <c r="G180">
+        <v>46.5217946235518</v>
+      </c>
+      <c r="H180">
+        <v>0.2173838870370223</v>
+      </c>
+      <c r="I180">
+        <v>0.07202723635829704</v>
+      </c>
+      <c r="J180">
+        <v>4429.675036035269</v>
+      </c>
+      <c r="K180">
+        <v>4.321634181497823</v>
+      </c>
+      <c r="L180">
+        <v>0.08819661594893516</v>
+      </c>
+      <c r="M180" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B181" t="s">
+        <v>86</v>
+      </c>
+      <c r="C181">
+        <v>0.7170151735161291</v>
+      </c>
+      <c r="D181" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181">
+        <v>7892.722245013249</v>
+      </c>
+      <c r="F181">
+        <v>24933.10957199685</v>
+      </c>
+      <c r="G181">
+        <v>83.64860050510785</v>
+      </c>
+      <c r="H181">
+        <v>0.7861665788517769</v>
+      </c>
+      <c r="I181">
+        <v>0.157854444900265</v>
+      </c>
+      <c r="J181">
+        <v>9708.048361366296</v>
+      </c>
+      <c r="K181">
+        <v>9.471266694015899</v>
+      </c>
+      <c r="L181">
+        <v>0.1932911570207326</v>
+      </c>
+      <c r="M181" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" t="s">
         <v>138</v>
       </c>
-      <c r="B179" t="s">
-        <v>138</v>
-      </c>
-      <c r="C179">
+      <c r="B182" t="s">
+        <v>74</v>
+      </c>
+      <c r="C182">
+        <v>0.806663912451613</v>
+      </c>
+      <c r="D182" t="s">
+        <v>154</v>
+      </c>
+      <c r="E182">
+        <v>48994.40072963476</v>
+      </c>
+      <c r="F182">
+        <v>154773.3119049162</v>
+      </c>
+      <c r="G182">
+        <v>665.9901771873696</v>
+      </c>
+      <c r="H182">
+        <v>3.190905962218407</v>
+      </c>
+      <c r="I182">
+        <v>0.9798880145926949</v>
+      </c>
+      <c r="J182">
+        <v>60263.11289745074</v>
+      </c>
+      <c r="K182">
+        <v>58.79328087556171</v>
+      </c>
+      <c r="L182">
+        <v>1.199862875011463</v>
+      </c>
+      <c r="M182" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" t="s">
+        <v>74</v>
+      </c>
+      <c r="B183" t="s">
+        <v>74</v>
+      </c>
+      <c r="C183">
+        <v>0.7158750894838709</v>
+      </c>
+      <c r="D183" t="s">
+        <v>175</v>
+      </c>
+      <c r="E183">
+        <v>41331.78367652622</v>
+      </c>
+      <c r="F183">
+        <v>130567.1046341463</v>
+      </c>
+      <c r="G183">
+        <v>558.6103746663845</v>
+      </c>
+      <c r="H183">
+        <v>5.047350007957125</v>
+      </c>
+      <c r="I183">
+        <v>0.8266356735305245</v>
+      </c>
+      <c r="J183">
+        <v>50838.09392212726</v>
+      </c>
+      <c r="K183">
+        <v>49.59814041183147</v>
+      </c>
+      <c r="L183">
+        <v>1.012206947180234</v>
+      </c>
+      <c r="M183" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" t="s">
+        <v>140</v>
+      </c>
+      <c r="C184">
+        <v>0.809747125483871</v>
+      </c>
+      <c r="D184" t="s">
+        <v>162</v>
+      </c>
+      <c r="E184">
+        <v>39748.55515223798</v>
+      </c>
+      <c r="F184">
+        <v>125565.6857259198</v>
+      </c>
+      <c r="G184">
+        <v>549.2414153786882</v>
+      </c>
+      <c r="H184">
+        <v>4.155471783927576</v>
+      </c>
+      <c r="I184">
+        <v>0.7949711030447597</v>
+      </c>
+      <c r="J184">
+        <v>48890.72283725272</v>
+      </c>
+      <c r="K184">
+        <v>47.69826618268559</v>
+      </c>
+      <c r="L184">
+        <v>0.9734340037282772</v>
+      </c>
+      <c r="M184" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="D185" t="s">
+        <v>175</v>
+      </c>
+      <c r="E185">
+        <v>37115.9564885392</v>
+      </c>
+      <c r="F185">
+        <v>117249.3065472954</v>
+      </c>
+      <c r="G185">
+        <v>506.8520648729752</v>
+      </c>
+      <c r="H185">
+        <v>4.736248404860567</v>
+      </c>
+      <c r="I185">
+        <v>0.7423191297707841</v>
+      </c>
+      <c r="J185">
+        <v>45652.62648090323</v>
+      </c>
+      <c r="K185">
+        <v>44.53914778624704</v>
+      </c>
+      <c r="L185">
+        <v>0.9089621997193275</v>
+      </c>
+      <c r="M185" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" t="s">
+        <v>140</v>
+      </c>
+      <c r="C186">
+        <v>0.8116680160999999</v>
+      </c>
+      <c r="D186" t="s">
+        <v>190</v>
+      </c>
+      <c r="E186">
+        <v>72410.34381504406</v>
+      </c>
+      <c r="F186">
+        <v>228744.2761117242</v>
+      </c>
+      <c r="G186">
+        <v>1232.335228319881</v>
+      </c>
+      <c r="H186">
+        <v>0.9628311986115822</v>
+      </c>
+      <c r="I186">
+        <v>1.448206876300881</v>
+      </c>
+      <c r="J186">
+        <v>89064.72289250421</v>
+      </c>
+      <c r="K186">
+        <v>86.89241257805288</v>
+      </c>
+      <c r="L186">
+        <v>1.773314542409242</v>
+      </c>
+      <c r="M186" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" t="s">
+        <v>142</v>
+      </c>
+      <c r="B187" t="s">
+        <v>143</v>
+      </c>
+      <c r="C187">
+        <v>0.6069551773999999</v>
+      </c>
+      <c r="D187" t="s">
+        <v>145</v>
+      </c>
+      <c r="E187">
+        <v>6400.667851646201</v>
+      </c>
+      <c r="F187">
+        <v>20219.70974335034</v>
+      </c>
+      <c r="G187">
+        <v>74.45919118876353</v>
+      </c>
+      <c r="H187">
+        <v>0.782702814723709</v>
+      </c>
+      <c r="I187">
+        <v>0.128013357032924</v>
+      </c>
+      <c r="J187">
+        <v>7872.821457524826</v>
+      </c>
+      <c r="K187">
+        <v>7.680801421975439</v>
+      </c>
+      <c r="L187">
+        <v>0.1567510494280702</v>
+      </c>
+      <c r="M187" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" t="s">
+        <v>140</v>
+      </c>
+      <c r="B188" t="s">
+        <v>140</v>
+      </c>
+      <c r="C188">
+        <v>0.6987738282666667</v>
+      </c>
+      <c r="D188" t="s">
+        <v>175</v>
+      </c>
+      <c r="E188">
+        <v>37115.9564885392</v>
+      </c>
+      <c r="F188">
+        <v>117249.3065472954</v>
+      </c>
+      <c r="G188">
+        <v>506.8520648729752</v>
+      </c>
+      <c r="H188">
+        <v>4.736248404860567</v>
+      </c>
+      <c r="I188">
+        <v>0.7423191297707841</v>
+      </c>
+      <c r="J188">
+        <v>45652.62648090323</v>
+      </c>
+      <c r="K188">
+        <v>44.53914778624704</v>
+      </c>
+      <c r="L188">
+        <v>0.9089621997193275</v>
+      </c>
+      <c r="M188" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" t="s">
+        <v>143</v>
+      </c>
+      <c r="B189" t="s">
+        <v>143</v>
+      </c>
+      <c r="C189">
         <v>0.5245896810666667</v>
       </c>
-      <c r="D179" t="s">
-        <v>140</v>
-      </c>
-      <c r="E179">
+      <c r="D189" t="s">
+        <v>145</v>
+      </c>
+      <c r="E189">
         <v>5381.379117934866</v>
       </c>
-      <c r="F179">
+      <c r="F189">
         <v>16999.77663355624</v>
       </c>
-      <c r="G179">
+      <c r="G189">
         <v>67.16775323619557</v>
       </c>
-      <c r="H179">
+      <c r="H189">
         <v>0.7724342144496155</v>
       </c>
-      <c r="I179">
+      <c r="I189">
         <v>0.1076275823586973</v>
       </c>
-      <c r="J179">
+      <c r="J189">
         <v>6619.096315059885</v>
       </c>
-      <c r="K179">
+      <c r="K189">
         <v>6.457654941521838</v>
       </c>
-      <c r="L179">
+      <c r="L189">
         <v>0.1317888763575885</v>
       </c>
-      <c r="M179" t="s">
-        <v>181</v>
+      <c r="M189" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
